--- a/templates/miaca/MIACA_template.xlsx
+++ b/templates/miaca/MIACA_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/naultran_msu_edu/Documents/Documents/Projects/FAIRTox/tox_Dataharmonier/web/templates/miaca/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/naultran_msu_edu/Documents/Documents/Projects/FAIRTox/ToxRSCat/templates/miaca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="840" documentId="13_ncr:1_{312CE87D-C60B-3744-983C-44476127223B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63DE646F-4AAB-4F25-A442-4C259758863A}"/>
+  <xr:revisionPtr revIDLastSave="870" documentId="13_ncr:1_{312CE87D-C60B-3744-983C-44476127223B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{537F81CC-35B0-411A-8E11-265EC5F3A542}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="24915" windowHeight="12735" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkML_description" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="214">
   <si>
     <t>description</t>
   </si>
@@ -158,9 +158,6 @@
     <t>data_submission_contact_email</t>
   </si>
   <si>
-    <t>Investigation</t>
-  </si>
-  <si>
     <t>data_submission_contact_telephone</t>
   </si>
   <si>
@@ -285,9 +282,6 @@
   </si>
   <si>
     <t>P42ES004911</t>
-  </si>
-  <si>
-    <t>OBI_0001615</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/</t>
@@ -345,12 +339,6 @@
     <t>PMID</t>
   </si>
   <si>
-    <t>Study</t>
-  </si>
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
     <t>experiment</t>
   </si>
   <si>
@@ -420,9 +408,6 @@
     <t>sample_identifier</t>
   </si>
   <si>
-    <t xml:space="preserve"> cellDensity</t>
-  </si>
-  <si>
     <t xml:space="preserve"> transgene/genetic manipulations, e.g. stably transfected, induced</t>
   </si>
   <si>
@@ -432,15 +417,9 @@
     <t xml:space="preserve"> Mycoplasma test (Y/N) and other measures for quality control, e.g.</t>
   </si>
   <si>
-    <t xml:space="preserve"> efo</t>
-  </si>
-  <si>
     <t>vendor</t>
   </si>
   <si>
-    <t xml:space="preserve"> treatment_protocol</t>
-  </si>
-  <si>
     <t>modifications</t>
   </si>
   <si>
@@ -462,9 +441,6 @@
     <t xml:space="preserve"> Description of the specific application of this project within a larger context.</t>
   </si>
   <si>
-    <t xml:space="preserve"> obo:IAO_0000315</t>
-  </si>
-  <si>
     <t>obo:OBI_0500000</t>
   </si>
   <si>
@@ -576,9 +552,6 @@
     <t>TBD</t>
   </si>
   <si>
-    <t xml:space="preserve"> treatment_protocol_DOI</t>
-  </si>
-  <si>
     <t>addition_volume</t>
   </si>
   <si>
@@ -600,9 +573,6 @@
     <t>Hepatocyte, Hep G2 cell, Hepa-RG cell</t>
   </si>
   <si>
-    <t xml:space="preserve"> obo:CL_0000000</t>
-  </si>
-  <si>
     <t>female, male</t>
   </si>
   <si>
@@ -612,15 +582,6 @@
     <t>mycoplasma, virus</t>
   </si>
   <si>
-    <t xml:space="preserve"> obo:CLO_0000004</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> obo:ERO_0001219</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> obo:ERO_0002025</t>
-  </si>
-  <si>
     <t>nameType</t>
   </si>
   <si>
@@ -642,9 +603,6 @@
     <t>incubator_model</t>
   </si>
   <si>
-    <t xml:space="preserve"> obo:NCIT_C120538</t>
-  </si>
-  <si>
     <t xml:space="preserve"> surface area in mm^2</t>
   </si>
   <si>
@@ -666,21 +624,6 @@
     <t>Description of the conditions that are applied to CellLine during</t>
   </si>
   <si>
-    <t xml:space="preserve"> obo:OBI_0000967</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> obo:NCIT_C68608</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> obo:NCIT_C25483</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> obo:PATO_0000117</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> obo:GENEPIO_0001885</t>
-  </si>
-  <si>
     <t>"^\\S+@[\\S+\\.]+\\S+"</t>
   </si>
   <si>
@@ -703,6 +646,69 @@
   </si>
   <si>
     <t>Funding institution</t>
+  </si>
+  <si>
+    <t>obo:NCIT_C120538</t>
+  </si>
+  <si>
+    <t>obo:GENEPIO_0001885</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>obo:IAO_0000315</t>
+  </si>
+  <si>
+    <t>obo:CL_0000000</t>
+  </si>
+  <si>
+    <t>obo:CLO_0000004</t>
+  </si>
+  <si>
+    <t>obo:ERO_0001219</t>
+  </si>
+  <si>
+    <t>obo:ERO_0002025</t>
+  </si>
+  <si>
+    <t>obo:OBI_0000967</t>
+  </si>
+  <si>
+    <t>obo:NCIT_C68608</t>
+  </si>
+  <si>
+    <t>obo:NCIT_C25483</t>
+  </si>
+  <si>
+    <t>obo:PATO_0000117</t>
+  </si>
+  <si>
+    <t>obo:OBI_0001615</t>
+  </si>
+  <si>
+    <t>TBD2</t>
+  </si>
+  <si>
+    <t>treatment_protocol_DOI</t>
+  </si>
+  <si>
+    <t>treatment_protocol</t>
+  </si>
+  <si>
+    <t>date3</t>
+  </si>
+  <si>
+    <t>date2</t>
+  </si>
+  <si>
+    <t>Investigation_cell</t>
+  </si>
+  <si>
+    <t>Study_cell</t>
+  </si>
+  <si>
+    <t>Sample_cell</t>
   </si>
 </sst>
 </file>
@@ -1150,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25A47E7-C24D-194E-BA2A-C4B34C2EC6AD}">
   <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85:A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1223,68 +1229,68 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>73</v>
+        <v>205</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -1293,33 +1299,36 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N4" t="b">
         <v>1</v>
       </c>
+      <c r="P4" t="s">
+        <v>195</v>
+      </c>
       <c r="R4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H5" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -1330,28 +1339,31 @@
       <c r="O5" t="b">
         <v>1</v>
       </c>
+      <c r="P5" t="s">
+        <v>195</v>
+      </c>
       <c r="R5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H6" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -1360,33 +1372,36 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N6" t="b">
         <v>1</v>
       </c>
+      <c r="P6" t="s">
+        <v>195</v>
+      </c>
       <c r="R6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H7" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -1395,7 +1410,10 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="P7" t="s">
+        <v>195</v>
       </c>
       <c r="R7">
         <v>5178842054</v>
@@ -1403,19 +1421,19 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -1424,30 +1442,33 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="P8" t="s">
+        <v>195</v>
       </c>
       <c r="R8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -1456,33 +1477,36 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="L9" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="P9" t="s">
+        <v>195</v>
       </c>
       <c r="R9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H10" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -1491,7 +1515,10 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="P10" t="s">
+        <v>195</v>
       </c>
       <c r="R10">
         <v>48824</v>
@@ -1499,19 +1526,19 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -1520,27 +1547,30 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="P11" t="s">
+        <v>195</v>
       </c>
       <c r="R11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
@@ -1549,30 +1579,33 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L12" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="P12" t="s">
+        <v>195</v>
       </c>
       <c r="R12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
@@ -1581,30 +1614,33 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="N13" t="b">
         <v>1</v>
       </c>
+      <c r="P13" t="s">
+        <v>195</v>
+      </c>
       <c r="R13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -1615,543 +1651,606 @@
       <c r="N14" t="b">
         <v>1</v>
       </c>
+      <c r="P14" t="s">
+        <v>195</v>
+      </c>
       <c r="R14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
         <v>87</v>
       </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" t="s">
-        <v>89</v>
-      </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" t="s">
         <v>92</v>
       </c>
-      <c r="B18" t="s">
-        <v>96</v>
-      </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" t="s">
         <v>92</v>
       </c>
-      <c r="B19" t="s">
-        <v>96</v>
-      </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M20" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="P20" t="s">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" t="s">
         <v>75</v>
       </c>
-      <c r="D21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" t="s">
-        <v>115</v>
-      </c>
-      <c r="K21" t="s">
-        <v>81</v>
-      </c>
-      <c r="L21" t="s">
-        <v>77</v>
-      </c>
       <c r="P21" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22" t="s">
         <v>76</v>
       </c>
-      <c r="D22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" t="s">
-        <v>115</v>
-      </c>
-      <c r="K22" t="s">
-        <v>82</v>
-      </c>
-      <c r="L22" t="s">
-        <v>78</v>
+      <c r="P22" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K23" t="s">
-        <v>175</v>
+        <v>166</v>
+      </c>
+      <c r="P23" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K24" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="P24" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K25" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="P25" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E26" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="P26" t="s">
+        <v>195</v>
       </c>
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="P27" t="s">
+        <v>195</v>
       </c>
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="P28" t="s">
+        <v>195</v>
       </c>
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K29" t="s">
-        <v>178</v>
+        <v>168</v>
+      </c>
+      <c r="P29" t="s">
+        <v>195</v>
       </c>
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D30" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="P30" t="s">
+        <v>195</v>
       </c>
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="P31" t="s">
+        <v>195</v>
       </c>
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C32" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D32" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E32" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="P32" t="s">
+        <v>195</v>
       </c>
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D33" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E33" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="P33" t="s">
+        <v>195</v>
       </c>
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E34" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="P34" t="s">
+        <v>195</v>
       </c>
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D35" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E35" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="P35" t="s">
+        <v>195</v>
       </c>
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E36" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="P36" t="s">
+        <v>195</v>
       </c>
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" t="s">
         <v>133</v>
       </c>
-      <c r="C37" t="s">
-        <v>141</v>
-      </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E37" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="P37" t="s">
+        <v>195</v>
       </c>
       <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E38" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L38" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D39" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E39" t="s">
+        <v>111</v>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>170</v>
+      </c>
+      <c r="L39" t="s">
         <v>115</v>
       </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="b">
-        <v>1</v>
-      </c>
-      <c r="K39" t="s">
-        <v>180</v>
-      </c>
-      <c r="L39" t="s">
-        <v>120</v>
-      </c>
       <c r="P39" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D40" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E40" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I40" t="b">
         <v>1</v>
@@ -2160,161 +2259,176 @@
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="L40" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="Q40" s="2"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B41" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C41" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E41" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="P41" t="s">
+        <v>195</v>
       </c>
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B42" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C42" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E42" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="P42" t="s">
+        <v>195</v>
       </c>
       <c r="Q42" s="1"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C43" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E43" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="P43" t="s">
+        <v>195</v>
       </c>
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B44" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="E44" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="P44" t="s">
+        <v>195</v>
       </c>
       <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E45" t="s">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="P45" t="s">
+        <v>195</v>
       </c>
       <c r="Q45" s="1"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D46" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="E46" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K46" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="L46" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="P46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D47" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P47" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C48" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="D48" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E48" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -2323,195 +2437,213 @@
         <v>384</v>
       </c>
       <c r="L48" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="P48" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D49" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E49" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="P49" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B50" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C50" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="D50" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E50" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="P50" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D51" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E51" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="P51" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="D52" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E52" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="P52" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B53" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C53" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E53" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
+      <c r="P53" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C54" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E54" t="s">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="P54" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B55" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="E55" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P55" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C56" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D56" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="E56" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="P56" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B57" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C57" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D57" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="E57" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="P57" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D58" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E58" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2519,22 +2651,25 @@
       <c r="G58">
         <v>100</v>
       </c>
+      <c r="P58" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B59" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D59" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E59" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2542,22 +2677,25 @@
       <c r="G59">
         <v>100</v>
       </c>
+      <c r="P59" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D60" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E60" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2565,22 +2703,25 @@
       <c r="G60">
         <v>100</v>
       </c>
+      <c r="P60" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B61" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E61" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2591,156 +2732,156 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B62" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="D62" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E62" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B63" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C63" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D63" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E63" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B64" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D64" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E64" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B65" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C65" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E65" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B66" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C66" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E66" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q66" s="1"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B67" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C67" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E67" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q67" s="1"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B68" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E68" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q68" s="1"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B69" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C69" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E69" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q69" s="1"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B70" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C70" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E70" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q70" s="1"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C71" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E71" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="N71" t="b">
         <v>1</v>
@@ -2748,224 +2889,221 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B72" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C72" t="s">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="D72" t="s">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="E72" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L72" t="s">
-        <v>198</v>
-      </c>
-      <c r="P72" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C73" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="D73" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="E73" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C74" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="E74" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B75" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C75" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E75" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B76" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C76" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E76" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B77" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C77" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E77" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B78" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C78" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E78" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B79" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E79" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B80" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C80" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E80" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B81" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C81" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E81" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B82" t="s">
+        <v>100</v>
+      </c>
+      <c r="C82" t="s">
         <v>104</v>
       </c>
-      <c r="C82" t="s">
-        <v>108</v>
-      </c>
       <c r="E82" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B83" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E83" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>213</v>
+      </c>
+      <c r="B84" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" t="s">
         <v>93</v>
       </c>
-      <c r="B84" t="s">
-        <v>96</v>
-      </c>
-      <c r="C84" t="s">
-        <v>97</v>
-      </c>
       <c r="E84" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="B85" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E85" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="B86" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C86" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E86" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L86" t="b">
         <v>1</v>
@@ -2976,56 +3114,56 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="B87" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E87" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="B88" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C88" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D88" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E88" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L88" t="s">
-        <v>197</v>
-      </c>
-      <c r="P88" t="s">
-        <v>121</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="B89" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C89" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D89" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E89" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="P89" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/templates/miaca/MIACA_template.xlsx
+++ b/templates/miaca/MIACA_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/naultran_msu_edu/Documents/Documents/Projects/FAIRTox/tox_Dataharmonier/web/templates/miaca/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/ToxRSCat/templates/miaca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="840" documentId="13_ncr:1_{312CE87D-C60B-3744-983C-44476127223B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63DE646F-4AAB-4F25-A442-4C259758863A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A784B16D-5972-AA43-834C-20181E0E5210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
+    <workbookView xWindow="3360" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkML_description" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="211">
   <si>
     <t>description</t>
   </si>
@@ -432,9 +432,6 @@
     <t xml:space="preserve"> Mycoplasma test (Y/N) and other measures for quality control, e.g.</t>
   </si>
   <si>
-    <t xml:space="preserve"> efo</t>
-  </si>
-  <si>
     <t>vendor</t>
   </si>
   <si>
@@ -462,9 +459,6 @@
     <t xml:space="preserve"> Description of the specific application of this project within a larger context.</t>
   </si>
   <si>
-    <t xml:space="preserve"> obo:IAO_0000315</t>
-  </si>
-  <si>
     <t>obo:OBI_0500000</t>
   </si>
   <si>
@@ -600,9 +594,6 @@
     <t>Hepatocyte, Hep G2 cell, Hepa-RG cell</t>
   </si>
   <si>
-    <t xml:space="preserve"> obo:CL_0000000</t>
-  </si>
-  <si>
     <t>female, male</t>
   </si>
   <si>
@@ -612,15 +603,6 @@
     <t>mycoplasma, virus</t>
   </si>
   <si>
-    <t xml:space="preserve"> obo:CLO_0000004</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> obo:ERO_0001219</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> obo:ERO_0002025</t>
-  </si>
-  <si>
     <t>nameType</t>
   </si>
   <si>
@@ -642,9 +624,6 @@
     <t>incubator_model</t>
   </si>
   <si>
-    <t xml:space="preserve"> obo:NCIT_C120538</t>
-  </si>
-  <si>
     <t xml:space="preserve"> surface area in mm^2</t>
   </si>
   <si>
@@ -666,21 +645,6 @@
     <t>Description of the conditions that are applied to CellLine during</t>
   </si>
   <si>
-    <t xml:space="preserve"> obo:OBI_0000967</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> obo:NCIT_C68608</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> obo:NCIT_C25483</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> obo:PATO_0000117</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> obo:GENEPIO_0001885</t>
-  </si>
-  <si>
     <t>"^\\S+@[\\S+\\.]+\\S+"</t>
   </si>
   <si>
@@ -703,6 +667,39 @@
   </si>
   <si>
     <t>Funding institution</t>
+  </si>
+  <si>
+    <t>obo:IAO_0000315</t>
+  </si>
+  <si>
+    <t>obo:CL_0000000</t>
+  </si>
+  <si>
+    <t>obo:CLO_0000004</t>
+  </si>
+  <si>
+    <t>obo:ERO_0001219</t>
+  </si>
+  <si>
+    <t>obo:ERO_0002025</t>
+  </si>
+  <si>
+    <t>obo:OBI_0000967</t>
+  </si>
+  <si>
+    <t>obo:NCIT_C68608</t>
+  </si>
+  <si>
+    <t>obo:NCIT_C25483</t>
+  </si>
+  <si>
+    <t>obo:PATO_0000117</t>
+  </si>
+  <si>
+    <t>obo:GENEPIO_0001885</t>
+  </si>
+  <si>
+    <t>obo:NCIT_C120538</t>
   </si>
 </sst>
 </file>
@@ -1096,15 +1093,17 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A25"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="31" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" customWidth="1"/>
+    <col min="3" max="4" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1121,7 +1120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1150,22 +1149,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25A47E7-C24D-194E-BA2A-C4B34C2EC6AD}">
   <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="21" customWidth="1"/>
-    <col min="3" max="4" width="37.25" customWidth="1"/>
-    <col min="5" max="8" width="10.125" customWidth="1"/>
-    <col min="9" max="10" width="15.875" customWidth="1"/>
+    <col min="3" max="4" width="37.1640625" customWidth="1"/>
+    <col min="5" max="8" width="10.1640625" customWidth="1"/>
+    <col min="9" max="10" width="15.83203125" customWidth="1"/>
     <col min="11" max="13" width="21" customWidth="1"/>
-    <col min="14" max="15" width="14.125" customWidth="1"/>
+    <col min="14" max="15" width="14.1640625" customWidth="1"/>
     <col min="16" max="18" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1221,7 +1220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1244,7 +1243,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1270,7 +1269,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1302,7 +1301,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1319,7 +1318,7 @@
         <v>112</v>
       </c>
       <c r="H5" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -1334,7 +1333,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1351,7 +1350,7 @@
         <v>112</v>
       </c>
       <c r="H6" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -1369,7 +1368,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1386,7 +1385,7 @@
         <v>112</v>
       </c>
       <c r="H7" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -1401,7 +1400,7 @@
         <v>5178842054</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1424,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="L8" t="s">
         <v>44</v>
@@ -1433,7 +1432,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1456,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="L9" t="s">
         <v>45</v>
@@ -1465,7 +1464,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1482,7 +1481,7 @@
         <v>112</v>
       </c>
       <c r="H10" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -1497,7 +1496,7 @@
         <v>48824</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1526,7 +1525,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1558,7 +1557,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1569,7 +1568,7 @@
         <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="E13" t="s">
         <v>115</v>
@@ -1581,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="N13" t="b">
         <v>1</v>
@@ -1590,7 +1589,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1619,7 +1618,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1642,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1665,7 +1664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1688,7 +1687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>92</v>
       </c>
@@ -1705,7 +1704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -1722,7 +1721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -1730,25 +1729,25 @@
         <v>94</v>
       </c>
       <c r="C20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" t="s">
+        <v>112</v>
+      </c>
+      <c r="M20" t="s">
         <v>129</v>
       </c>
-      <c r="D20" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" t="s">
-        <v>112</v>
-      </c>
-      <c r="M20" t="s">
-        <v>130</v>
-      </c>
       <c r="P20" t="s">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>92</v>
       </c>
@@ -1771,13 +1770,13 @@
         <v>77</v>
       </c>
       <c r="P21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>92</v>
       </c>
@@ -1800,7 +1799,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -1817,10 +1816,10 @@
         <v>115</v>
       </c>
       <c r="K23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -1837,74 +1836,74 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>92</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E25" t="s">
         <v>115</v>
       </c>
       <c r="K25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P25" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>92</v>
       </c>
       <c r="B26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" t="s">
         <v>133</v>
       </c>
-      <c r="C26" t="s">
-        <v>135</v>
-      </c>
       <c r="D26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E26" t="s">
         <v>112</v>
       </c>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>92</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E27" t="s">
         <v>112</v>
       </c>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C28" t="s">
         <v>103</v>
@@ -1917,12 +1916,12 @@
       </c>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C29" t="s">
         <v>102</v>
@@ -1934,166 +1933,166 @@
         <v>115</v>
       </c>
       <c r="K29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E30" t="s">
         <v>113</v>
       </c>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E31" t="s">
         <v>113</v>
       </c>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E32" t="s">
         <v>112</v>
       </c>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E33" t="s">
         <v>112</v>
       </c>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" t="s">
         <v>138</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>138</v>
       </c>
-      <c r="E34" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q34" s="1"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="E36" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" t="s">
         <v>139</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D37" t="s">
         <v>139</v>
       </c>
-      <c r="E35" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q35" s="1"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36" t="s">
-        <v>133</v>
-      </c>
-      <c r="C36" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36" t="s">
-        <v>140</v>
-      </c>
-      <c r="E36" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q36" s="1"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" t="s">
-        <v>133</v>
-      </c>
-      <c r="C37" t="s">
-        <v>141</v>
-      </c>
-      <c r="D37" t="s">
-        <v>141</v>
-      </c>
       <c r="E37" t="s">
         <v>112</v>
       </c>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>92</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E38" t="s">
         <v>112</v>
@@ -2102,21 +2101,21 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E39" t="s">
         <v>115</v>
@@ -2128,27 +2127,27 @@
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L39" t="s">
         <v>120</v>
       </c>
       <c r="P39" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>92</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E40" t="s">
         <v>115</v>
@@ -2160,88 +2159,88 @@
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L40" t="s">
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C41" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
         <v>143</v>
       </c>
-      <c r="D41" t="s">
-        <v>143</v>
-      </c>
-      <c r="E41" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q41" s="1"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>92</v>
-      </c>
-      <c r="B42" t="s">
-        <v>146</v>
-      </c>
-      <c r="C42" t="s">
-        <v>144</v>
-      </c>
-      <c r="D42" t="s">
-        <v>144</v>
-      </c>
-      <c r="E42" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q42" s="1"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" t="s">
-        <v>145</v>
-      </c>
       <c r="C43" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E43" t="s">
         <v>112</v>
       </c>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E44" t="s">
         <v>112</v>
       </c>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C45" t="s">
         <v>100</v>
@@ -2254,64 +2253,64 @@
       </c>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C46" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D46" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E46" t="s">
         <v>115</v>
       </c>
       <c r="K46" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="L46" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="P46" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E47" t="s">
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C48" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D48" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E48" t="s">
         <v>113</v>
@@ -2323,24 +2322,24 @@
         <v>384</v>
       </c>
       <c r="L48" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="P48" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>92</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C49" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D49" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E49" t="s">
         <v>114</v>
@@ -2349,24 +2348,24 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="P49" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>92</v>
       </c>
       <c r="B50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C50" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D50" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E50" t="s">
         <v>114</v>
@@ -2375,55 +2374,55 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="P50" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>92</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E51" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>92</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C52" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D52" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E52" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E53" t="s">
         <v>114</v>
@@ -2432,26 +2431,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>92</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C54" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E54" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>92</v>
       </c>
       <c r="B55" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C55" t="s">
         <v>117</v>
@@ -2460,55 +2459,55 @@
         <v>112</v>
       </c>
       <c r="P55" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>92</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C56" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D56" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E56" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>92</v>
       </c>
       <c r="B57" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C57" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D57" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>92</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D58" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E58" t="s">
         <v>114</v>
@@ -2520,18 +2519,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>92</v>
       </c>
       <c r="B59" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" t="s">
         <v>148</v>
       </c>
-      <c r="C59" t="s">
-        <v>150</v>
-      </c>
       <c r="D59" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E59" t="s">
         <v>114</v>
@@ -2543,18 +2542,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>92</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D60" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E60" t="s">
         <v>112</v>
@@ -2566,18 +2565,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>92</v>
       </c>
       <c r="B61" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E61" t="s">
         <v>112</v>
@@ -2589,12 +2588,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C62" t="s">
         <v>100</v>
@@ -2606,130 +2605,130 @@
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>92</v>
       </c>
       <c r="B63" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" t="s">
+        <v>164</v>
+      </c>
+      <c r="E63" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" t="s">
+        <v>156</v>
+      </c>
+      <c r="D64" t="s">
+        <v>156</v>
+      </c>
+      <c r="E64" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" t="s">
         <v>157</v>
       </c>
-      <c r="C63" t="s">
-        <v>166</v>
-      </c>
-      <c r="D63" t="s">
-        <v>166</v>
-      </c>
-      <c r="E63" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>92</v>
-      </c>
-      <c r="B64" t="s">
-        <v>157</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="E65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" t="s">
         <v>158</v>
       </c>
-      <c r="D64" t="s">
-        <v>158</v>
-      </c>
-      <c r="E64" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>92</v>
-      </c>
-      <c r="B65" t="s">
-        <v>157</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="E66" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q66" s="1"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" t="s">
         <v>159</v>
       </c>
-      <c r="E65" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>92</v>
-      </c>
-      <c r="B66" t="s">
-        <v>157</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="E67" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q67" s="1"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" t="s">
         <v>160</v>
       </c>
-      <c r="E66" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q66" s="1"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>92</v>
-      </c>
-      <c r="B67" t="s">
-        <v>157</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="E68" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q68" s="1"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" t="s">
         <v>161</v>
       </c>
-      <c r="E67" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q67" s="1"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>92</v>
-      </c>
-      <c r="B68" t="s">
-        <v>157</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="E69" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q69" s="1"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" t="s">
+        <v>155</v>
+      </c>
+      <c r="C70" t="s">
         <v>162</v>
       </c>
-      <c r="E68" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q68" s="1"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>92</v>
-      </c>
-      <c r="B69" t="s">
-        <v>157</v>
-      </c>
-      <c r="C69" t="s">
-        <v>163</v>
-      </c>
-      <c r="E69" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q69" s="1"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>92</v>
-      </c>
-      <c r="B70" t="s">
-        <v>157</v>
-      </c>
-      <c r="C70" t="s">
-        <v>164</v>
-      </c>
       <c r="E70" t="s">
         <v>112</v>
       </c>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>92</v>
       </c>
@@ -2746,7 +2745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>92</v>
       </c>
@@ -2754,22 +2753,19 @@
         <v>104</v>
       </c>
       <c r="C72" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D72" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E72" t="s">
         <v>112</v>
       </c>
       <c r="L72" t="s">
-        <v>198</v>
-      </c>
-      <c r="P72" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>92</v>
       </c>
@@ -2777,16 +2773,16 @@
         <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D73" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E73" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -2800,7 +2796,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>92</v>
       </c>
@@ -2808,13 +2804,13 @@
         <v>104</v>
       </c>
       <c r="C75" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E75" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>92</v>
       </c>
@@ -2822,13 +2818,13 @@
         <v>104</v>
       </c>
       <c r="C76" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E76" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>92</v>
       </c>
@@ -2836,13 +2832,13 @@
         <v>104</v>
       </c>
       <c r="C77" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E77" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -2850,13 +2846,13 @@
         <v>104</v>
       </c>
       <c r="C78" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E78" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -2870,7 +2866,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -2884,7 +2880,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>92</v>
       </c>
@@ -2898,7 +2894,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>92</v>
       </c>
@@ -2912,7 +2908,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>92</v>
       </c>
@@ -2926,7 +2922,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>93</v>
       </c>
@@ -2940,7 +2936,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>93</v>
       </c>
@@ -2954,7 +2950,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>93</v>
       </c>
@@ -2974,7 +2970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -2988,7 +2984,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -2996,22 +2992,19 @@
         <v>111</v>
       </c>
       <c r="C88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E88" t="s">
         <v>112</v>
       </c>
       <c r="L88" t="s">
-        <v>197</v>
-      </c>
-      <c r="P88" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>93</v>
       </c>

--- a/templates/miaca/MIACA_template.xlsx
+++ b/templates/miaca/MIACA_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/ToxRSCat/templates/miaca/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/naultran_msu_edu/Documents/Documents/Projects/FAIRTox/ToxRSCat/templates/miaca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A784B16D-5972-AA43-834C-20181E0E5210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{A784B16D-5972-AA43-834C-20181E0E5210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACE835AA-4556-4CB7-A720-5F2FBB93C9F7}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkML_description" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="232">
   <si>
     <t>description</t>
   </si>
@@ -191,9 +191,6 @@
     <t>A textual entity that describes an investigation.</t>
   </si>
   <si>
-    <t>the name of the person bearing the data submission contact representative role</t>
-  </si>
-  <si>
     <t>email address of data submission contact</t>
   </si>
   <si>
@@ -251,9 +248,6 @@
     <t>MI</t>
   </si>
   <si>
-    <t>AL, AK, AZ, AR, CA, CO, CT, DE, DC, FL, GA, HI, ID, IL, IN, IA, KS, KY, LA, ME, MD, MA, MI, MN, MS, MO, MT, NB*, *to NE in 1969, NV, NH, NJ, NM, NY, NC, ND, OH, OK, OR, PA, PR, RI, SC, SD, TN, TX, UT, VT, VA, WA, WV, WI, WY</t>
-  </si>
-  <si>
     <t>Funding identifier</t>
   </si>
   <si>
@@ -263,9 +257,6 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Rance Nault</t>
-  </si>
-  <si>
     <t>0000-0002-6822-4962</t>
   </si>
   <si>
@@ -281,9 +272,6 @@
     <t>East Lansing</t>
   </si>
   <si>
-    <t>NIEHS</t>
-  </si>
-  <si>
     <t>P42ES004911</t>
   </si>
   <si>
@@ -311,25 +299,12 @@
     <t>Study type</t>
   </si>
   <si>
-    <t>dose response design, case control design
-cross sectional design, genetic modification design, sex design, time series design</t>
-  </si>
-  <si>
-    <t>Teratology,Short term,Long term,Bacterial mutagenicity,Drosophila germ cell mutagenicity,In vitro micronucleus,In vivo alkaline comet assay,Mammalian cell cytogenetics,Mammalian cell mutagenicity,Micronucleus,Rodent cytogenetics,ADME,Immunotoxicology,Nematode,RACB,Tox21 - Phase II,Toxicogenomics,Toxicokinetics,Zebrafish</t>
-  </si>
-  <si>
-    <t>Organism</t>
-  </si>
-  <si>
     <t>experimental_setting</t>
   </si>
   <si>
     <t>Experimental setting</t>
   </si>
   <si>
-    <t>Homo sapiens, Mus musculus, Rattus norvegicus, Drosophila melanogaster, Danio rerio, Xenopus laevis</t>
-  </si>
-  <si>
     <t>Publication</t>
   </si>
   <si>
@@ -363,9 +338,6 @@
     <t>study_identifier</t>
   </si>
   <si>
-    <t>Zacharewski_Superfund</t>
-  </si>
-  <si>
     <t>subject_identifier</t>
   </si>
   <si>
@@ -453,9 +425,6 @@
     <t>quality_control</t>
   </si>
   <si>
-    <t>application</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Description of the specific application of this project within a larger context.</t>
   </si>
   <si>
@@ -588,21 +557,6 @@
     <t>collection_protocol</t>
   </si>
   <si>
-    <t>in vitro, ex vivo</t>
-  </si>
-  <si>
-    <t>Hepatocyte, Hep G2 cell, Hepa-RG cell</t>
-  </si>
-  <si>
-    <t>female, male</t>
-  </si>
-  <si>
-    <t>DNA fingerprinting, genotyping, morphology testing</t>
-  </si>
-  <si>
-    <t>mycoplasma, virus</t>
-  </si>
-  <si>
     <t>nameType</t>
   </si>
   <si>
@@ -636,9 +590,6 @@
     <t>Type of vessel used</t>
   </si>
   <si>
-    <t>4mm dish, 8mm dish</t>
-  </si>
-  <si>
     <t>Description of the conditions, i.e. lysis, fixation, staining, antibody</t>
   </si>
   <si>
@@ -654,18 +605,9 @@
     <t>"^(\+\d{1,2}\s)?\(?\d{3}\)?[\s.-]\d{3}[\s.-]\d{4}$"</t>
   </si>
   <si>
-    <t>Biochemistry and Molecular Biology, Pharmacology and toxicology, Institute for Integrative toxicology, Physiology, Statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michigan State University, Emory University, </t>
-  </si>
-  <si>
     <t>"^[0-9]{5}(?:-[0-9]{4})?$"</t>
   </si>
   <si>
-    <t>NIEHS, NIEHS SRP, NHGRI, NIGMS</t>
-  </si>
-  <si>
     <t>Funding institution</t>
   </si>
   <si>
@@ -700,6 +642,126 @@
   </si>
   <si>
     <t>obo:NCIT_C120538</t>
+  </si>
+  <si>
+    <t>Biochemistry and Molecular Biology;Pharmacology and toxicology;Institute for Integrative toxicology;Physiology;Statistics</t>
+  </si>
+  <si>
+    <t>AL;AK;AZ;AR;CA;CO;CT;DE;DC;FL;GA;HI;ID;IL;IN;IA;KS;KY;LA;ME;MD;MA;MI;MN;MS;MO;MT;NB*;*to NE in 1969;NV;NH;NJ;NM;NY;NC;ND;OH;OK;OR;PA;PR;RI;SC;SD;TN;TX;UT;VT;VA;WA;WV;WI;WY</t>
+  </si>
+  <si>
+    <t>in vitro;ex vivo</t>
+  </si>
+  <si>
+    <t>Homo sapiens;Mus musculus;Rattus norvegicus;Drosophila melanogaster;Danio rerio;Xenopus laevis</t>
+  </si>
+  <si>
+    <t>Hepatocyte;Hep G2 cell;Hepa-RG cell</t>
+  </si>
+  <si>
+    <t>female;male</t>
+  </si>
+  <si>
+    <t>mycoplasma;virus</t>
+  </si>
+  <si>
+    <t>DNA fingerprinting;genotyping;morphology testing</t>
+  </si>
+  <si>
+    <t>4mm dish;8mm dish</t>
+  </si>
+  <si>
+    <t>Teratology;Short term;Long term;Bacterial mutagenicity;Drosophila germ cell mutagenicity;In vitro micronucleus;In vivo alkaline comet assay;Mammalian cell cytogenetics;Mammalian cell mutagenicity;Micronucleus;Rodent cytogenetics;ADME;Immunotoxicology;Nematode;RACB;Tox21 - Phase II;Toxicogenomics;Toxicokinetics;Zebrafish</t>
+  </si>
+  <si>
+    <t>Michigan State University;Emory University</t>
+  </si>
+  <si>
+    <t>dose response design;case control design;cross sectional design;genetic modification design;sex design;time series design</t>
+  </si>
+  <si>
+    <t>Abdomen;Abdominal Wall;Acetabulum;Adenoid;Adipose;Adrenal;Alveolar Ridge;Amniotic Fluid;Ampulla Of Vater;Anal Sphincter;Ankle;Anorectum;Antecubital Fossa;Antrum;Anus;Aorta;Aortic Body;Appendix;Aqueous Fluid;Arm;Artery;Ascending Colon;Ascending Colon Hepatic Flexure;Auditory Canal;Autonomic Nervous System;Axilla;Back;Bile Duct;Bladder;Blood;Blood Vessel;Bone;Bone Marrow;Bowel;Brain;Brain Stem;Breast;Broad Ligament;Bronchiole;Bronchus;Brow;Buccal Cavity;Buccal Mucosa;Buttock;Calf;Capillary;Cardia;Carina;Carotid Artery;Carotid Body;Cartilage;Cecum;Cell-Line;Central Nervous System;Cerebellum;Cerebral Cortex;Cerebrospinal Fluid;Cerebrum;Cervical Spine;Cervix;Chest;Chest Wall;Chin;Clavicle;Clitoris;Colon;Colon - Mucosa Only;Common Duct;Conjunctiva;Connective Tissue;Dermal;Descending Colon;Diaphragm;Duodenum;Ear;Ear Canal;Ear;Pinna (External);Effusion;Elbow;Endocrine Gland;Epididymis;Epidural Space;Esophagogastric Junction;Esophagus;Esophagus - Mucosa Only;Eye;Fallopian Tube;Femoral Artery;Femoral Vein;Femur;Fibroblasts;Fibula;Finger;Floor Of Mouth;Fluid;Foot;Forearm;Forehead;Foreskin;Frontal Cortex;Frontal Lobe;Fundus Of Stomach;Gallbladder;Ganglia;Gastroesophageal Junction;Gastrointestinal Tract;Groin;Gum;Hand;Hard Palate;Head &amp; Neck;Head - Face Or Neck;Nos;Heart;Hepatic;Hepatic Duct;Hepatic Vein;Hip;Hippocampus;Humerus;Hypopharynx;Ileum;Ilium;Index Finger;Ischium;Islet Cells;Jaw;Jejunum;Joint;Kidney;Knee;Lacrimal Gland;Large Bowel;Laryngopharynx;Larynx;Leg;Leptomeninges;Ligament;Lip;Liver;Lumbar Spine;Lung;Lymph Node;Lymph Node(s) Axilla;Lymph Node(s) Cervical;Lymph Node(s) Distant;Lymph Node(s) Epitrochlear;Lymph Node(s) Femoral;Lymph Node(s) Hilar;Lymph Node(s) Iliac-Common;Lymph Node(s) Iliac-External;Lymph Node(s) Inguinal;Lymph Node(s) Internal Mammary;Lymph Node(s) Mammary;Lymph Node(s) Mesenteric;Lymph Node(s) Occipital;Lymph Node(s) Paraaortic;Lymph Node(s) Parotid;Lymph Node(s) Pelvic;Lymph Node(s) Popliteal;Lymph Node(s) Regional;Lymph Node(s) Retroperitoneal;Lymph Node(s) Scalene;Lymph Node(s) Splenic;Lymph Node(s) Subclavicular;Lymph Node(s) Submandibular;Lymph Node(s) Supraclavicular;Lymph Nodes(s) Mediastinal;Mandible;Maxilla;Mediastinal Soft Tissue;Mediastinum;Mesentery;Mesothelium;Middle Finger;Mitochondria;Muscle;Nails;Nasal Cavity;Nasal Soft Tissue;Nasopharynx;Neck;Nerve;Nerve(s) Cranial;Occipital Cortex;Ocular Orbits;Omentum;Oral Cavity;Oral Cavity - Mucosa Only;Oropharynx;Other;Ovary;Palate;Pancreas;Paraspinal Ganglion;Parathyroid;Parotid Gland;Patella;Pelvis;Penis;Pericardium;Periorbital Soft Tissue;Peritoneal Cavity;Peritoneum;Pharynx;Pineal;Pineal Gland;Pituitary Gland;Placenta;Pleura;Popliteal Fossa;Prostate;Pylorus;Rectosigmoid Junction;Rectum;Retina;Retro-Orbital Region;Retroperitoneum;Rib;Ring Finger;Round Ligament;Sacrum;Salivary Gland;Scalp;Scapula;Sciatic Nerve;Scrotum;Seminal Vesicle;Shoulder;Sigmoid Colon;Sinus;Sinus(es);Maxillary;Skeletal Muscle;Skin;Skull;Small Bowel;Small Bowel - Mucosa Only;Small Finger;Soft Tissue;Spinal Column;Spinal Cord;Spleen;Splenic Flexure;Sternum;Stomach;Stomach - Mucosa Only;Subcutaneous Tissue;Synovium;Temporal Cortex;Tendon;Testis;Thigh;Thoracic Spine;Thorax;Throat;Thumb;Thymus;Thyroid;Tibia;Tongue;Tonsil;Tonsil (Pharyngeal);Trachea / Major Bronchi;Transverse Colon;Trunk;Umbilical Cord;Ureter;Urethra;Urinary Tract;Uterus;Uvula;Vagina;Vas Deferens;Vein;Venous;Vertebra;Vulva;White Blood Cells;Wrist</t>
+  </si>
+  <si>
+    <t>The chromosomal morphology and number in somatic cells of an individual.</t>
+  </si>
+  <si>
+    <t>normal;abnormal XYY;Trisomy;Aneuploidy</t>
+  </si>
+  <si>
+    <t>healthy;cancer</t>
+  </si>
+  <si>
+    <t>provenance</t>
+  </si>
+  <si>
+    <t>the name of the person bearing the data submission contact representative role (last name,first name)</t>
+  </si>
+  <si>
+    <t>SRP_PRJ3</t>
+  </si>
+  <si>
+    <t>Nault,Rance</t>
+  </si>
+  <si>
+    <t>517-884-2054</t>
+  </si>
+  <si>
+    <t>NIEHS;NIDDK;NHGRI;NHLBI;NIAID;NLM;Superfund Basic Research Program</t>
+  </si>
+  <si>
+    <t>Superfund Basic Research Program</t>
+  </si>
+  <si>
+    <t>^\d{5,20}</t>
+  </si>
+  <si>
+    <t>PRJ140</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>dose response design</t>
+  </si>
+  <si>
+    <t>Toxicogenomics</t>
+  </si>
+  <si>
+    <t>in vitro</t>
+  </si>
+  <si>
+    <t>Hepatocyte</t>
+  </si>
+  <si>
+    <t>Mus musculus</t>
+  </si>
+  <si>
+    <t>C57BL/6NCrl;C57BL/6J;129/Sv;FVB/N;BALB/cJ;C3H/HeJ;Sprague-Dawley;Dahl SS</t>
+  </si>
+  <si>
+    <t>C57BL/6NCrl</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>Liver</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>M001</t>
+  </si>
+  <si>
+    <t>Collagen</t>
+  </si>
+  <si>
+    <t>A1</t>
   </si>
 </sst>
 </file>
@@ -752,10 +814,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1096,14 +1159,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="33.83203125" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
     <col min="3" max="4" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1120,7 +1183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1147,24 +1210,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25A47E7-C24D-194E-BA2A-C4B34C2EC6AD}">
-  <dimension ref="A1:R89"/>
+  <dimension ref="A1:R91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="21" customWidth="1"/>
-    <col min="3" max="4" width="37.1640625" customWidth="1"/>
-    <col min="5" max="8" width="10.1640625" customWidth="1"/>
-    <col min="9" max="10" width="15.83203125" customWidth="1"/>
-    <col min="11" max="13" width="21" customWidth="1"/>
-    <col min="14" max="15" width="14.1640625" customWidth="1"/>
-    <col min="16" max="18" width="21" customWidth="1"/>
+    <col min="3" max="4" width="37.125" customWidth="1"/>
+    <col min="5" max="8" width="10.125" customWidth="1"/>
+    <col min="9" max="10" width="15.875" customWidth="1"/>
+    <col min="11" max="12" width="21" customWidth="1"/>
+    <col min="13" max="13" width="21" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="14.125" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="21" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1220,70 +1285,70 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="L2" t="s">
         <v>39</v>
       </c>
       <c r="R2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="L3" t="s">
         <v>40</v>
       </c>
       <c r="P3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -1292,33 +1357,33 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="N4" t="b">
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H5" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -1330,27 +1395,27 @@
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H6" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -1359,33 +1424,33 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N6" t="b">
         <v>1</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H7" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -1394,27 +1459,27 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R7">
-        <v>5178842054</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="R7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -1423,30 +1488,30 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -1455,33 +1520,33 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H10" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -1490,27 +1555,27 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R10">
         <v>48824</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -1519,27 +1584,27 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
@@ -1548,30 +1613,30 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>61</v>
+        <v>193</v>
       </c>
       <c r="L12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
@@ -1580,30 +1645,30 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="N13" t="b">
         <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -1615,24 +1680,27 @@
         <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>103</v>
+      </c>
+      <c r="H15" t="s">
+        <v>215</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -1641,21 +1709,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -1664,285 +1732,328 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" t="s">
+        <v>215</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
         <v>87</v>
       </c>
-      <c r="C17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" t="s">
-        <v>112</v>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" t="s">
-        <v>95</v>
-      </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
+        <v>217</v>
+      </c>
+      <c r="E20" t="s">
+        <v>103</v>
+      </c>
+      <c r="M20" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="L21" t="s">
+        <v>73</v>
+      </c>
+      <c r="P21" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" t="s">
+        <v>106</v>
+      </c>
+      <c r="K22" t="s">
+        <v>201</v>
+      </c>
+      <c r="L22" t="s">
+        <v>74</v>
+      </c>
+      <c r="R22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" t="s">
+        <v>106</v>
+      </c>
+      <c r="K23" t="s">
+        <v>194</v>
+      </c>
+      <c r="R23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" t="s">
+        <v>106</v>
+      </c>
+      <c r="K24" t="s">
+        <v>196</v>
+      </c>
+      <c r="P24" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" t="s">
+        <v>103</v>
+      </c>
+      <c r="K25" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q25" s="1"/>
+      <c r="R25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
         <v>94</v>
       </c>
-      <c r="C20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" t="s">
-        <v>112</v>
-      </c>
-      <c r="M20" t="s">
-        <v>129</v>
-      </c>
-      <c r="P20" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="D27" t="s">
         <v>94</v>
       </c>
-      <c r="C21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" t="s">
-        <v>115</v>
-      </c>
-      <c r="K21" t="s">
-        <v>81</v>
-      </c>
-      <c r="L21" t="s">
-        <v>77</v>
-      </c>
-      <c r="P21" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" t="s">
-        <v>115</v>
-      </c>
-      <c r="K22" t="s">
-        <v>82</v>
-      </c>
-      <c r="L22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" t="s">
-        <v>115</v>
-      </c>
-      <c r="K23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" t="s">
-        <v>115</v>
-      </c>
-      <c r="K24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" t="s">
-        <v>132</v>
-      </c>
-      <c r="D25" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" t="s">
-        <v>115</v>
-      </c>
-      <c r="K25" t="s">
-        <v>174</v>
-      </c>
-      <c r="P25" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" t="s">
-        <v>134</v>
-      </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>106</v>
+      </c>
+      <c r="K27" t="s">
+        <v>223</v>
       </c>
       <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>112</v>
+        <v>106</v>
+      </c>
+      <c r="K28" t="s">
+        <v>197</v>
       </c>
       <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
-      </c>
-      <c r="K29" t="s">
-        <v>175</v>
+        <v>104</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>150</v>
       </c>
       <c r="Q29" s="1"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
         <v>135</v>
@@ -1951,566 +2062,610 @@
         <v>135</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>104</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
       </c>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" t="s">
+        <v>106</v>
+      </c>
+      <c r="K32" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q32" s="1"/>
+      <c r="R32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" t="s">
+        <v>103</v>
+      </c>
+      <c r="K34" t="s">
+        <v>206</v>
+      </c>
+      <c r="L34" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q34" s="1"/>
+      <c r="R34" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" t="s">
+        <v>103</v>
+      </c>
+      <c r="K35" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q35" s="1"/>
+      <c r="R35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q36" s="1"/>
+      <c r="R36" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" t="s">
+        <v>103</v>
+      </c>
+      <c r="L37" t="s">
+        <v>109</v>
+      </c>
+      <c r="P37" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" t="s">
+        <v>106</v>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>198</v>
+      </c>
+      <c r="L38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P38" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" t="s">
+        <v>106</v>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>199</v>
+      </c>
+      <c r="L39" t="s">
+        <v>110</v>
+      </c>
+      <c r="P39" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q39" s="2"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" t="s">
         <v>131</v>
       </c>
-      <c r="C31" t="s">
-        <v>145</v>
-      </c>
-      <c r="D31" t="s">
-        <v>145</v>
-      </c>
-      <c r="E31" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q31" s="1"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="D40" t="s">
         <v>131</v>
       </c>
-      <c r="C32" t="s">
-        <v>153</v>
-      </c>
-      <c r="D32" t="s">
-        <v>153</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="E40" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" t="s">
+        <v>156</v>
+      </c>
+      <c r="E42" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45" t="s">
+        <v>163</v>
+      </c>
+      <c r="E45" t="s">
+        <v>106</v>
+      </c>
+      <c r="K45" t="s">
+        <v>200</v>
+      </c>
+      <c r="L45" t="s">
+        <v>173</v>
+      </c>
+      <c r="P45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" t="s">
         <v>112</v>
       </c>
-      <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33" t="s">
-        <v>140</v>
-      </c>
-      <c r="D33" t="s">
-        <v>140</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D46" t="s">
         <v>112</v>
       </c>
-      <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" t="s">
-        <v>136</v>
-      </c>
-      <c r="D34" t="s">
-        <v>136</v>
-      </c>
-      <c r="E34" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q34" s="1"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35" t="s">
-        <v>137</v>
-      </c>
-      <c r="E35" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q35" s="1"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E36" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q36" s="1"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" t="s">
-        <v>131</v>
-      </c>
-      <c r="C37" t="s">
-        <v>139</v>
-      </c>
-      <c r="D37" t="s">
-        <v>139</v>
-      </c>
-      <c r="E37" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q37" s="1"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" t="s">
-        <v>123</v>
-      </c>
-      <c r="E38" t="s">
-        <v>112</v>
-      </c>
-      <c r="L38" t="s">
-        <v>118</v>
-      </c>
-      <c r="P38" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" t="s">
-        <v>125</v>
-      </c>
-      <c r="E39" t="s">
-        <v>115</v>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="b">
-        <v>1</v>
-      </c>
-      <c r="K39" t="s">
-        <v>177</v>
-      </c>
-      <c r="L39" t="s">
-        <v>120</v>
-      </c>
-      <c r="P39" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" t="s">
-        <v>124</v>
-      </c>
-      <c r="D40" t="s">
-        <v>124</v>
-      </c>
-      <c r="E40" t="s">
-        <v>115</v>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="b">
-        <v>1</v>
-      </c>
-      <c r="K40" t="s">
-        <v>176</v>
-      </c>
-      <c r="L40" t="s">
-        <v>119</v>
-      </c>
-      <c r="P40" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q40" s="2"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" t="s">
-        <v>144</v>
-      </c>
-      <c r="C41" t="s">
-        <v>141</v>
-      </c>
-      <c r="D41" t="s">
-        <v>141</v>
-      </c>
-      <c r="E41" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q41" s="1"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>92</v>
-      </c>
-      <c r="B42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" t="s">
-        <v>142</v>
-      </c>
-      <c r="E42" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q42" s="1"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" t="s">
-        <v>143</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="E46" t="s">
+        <v>103</v>
+      </c>
+      <c r="P46" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" t="s">
+        <v>164</v>
+      </c>
+      <c r="E47" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>384</v>
+      </c>
+      <c r="L47" t="s">
+        <v>172</v>
+      </c>
+      <c r="P47" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="L48" t="s">
+        <v>171</v>
+      </c>
+      <c r="P48" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" t="s">
         <v>166</v>
       </c>
-      <c r="E43" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q43" s="1"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" t="s">
-        <v>165</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D49" t="s">
         <v>166</v>
       </c>
-      <c r="E44" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q44" s="1"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C45" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" t="s">
-        <v>100</v>
-      </c>
-      <c r="E45" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q45" s="1"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46" t="s">
-        <v>178</v>
-      </c>
-      <c r="D46" t="s">
-        <v>178</v>
-      </c>
-      <c r="E46" t="s">
-        <v>115</v>
-      </c>
-      <c r="K46" t="s">
-        <v>189</v>
-      </c>
-      <c r="L46" t="s">
-        <v>188</v>
-      </c>
-      <c r="P46" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" t="s">
-        <v>121</v>
-      </c>
-      <c r="D47" t="s">
-        <v>121</v>
-      </c>
-      <c r="E47" t="s">
-        <v>112</v>
-      </c>
-      <c r="P47" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" t="s">
-        <v>179</v>
-      </c>
-      <c r="D48" t="s">
-        <v>179</v>
-      </c>
-      <c r="E48" t="s">
-        <v>113</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>384</v>
-      </c>
-      <c r="L48" t="s">
-        <v>187</v>
-      </c>
-      <c r="P48" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" t="s">
-        <v>126</v>
-      </c>
-      <c r="C49" t="s">
-        <v>180</v>
-      </c>
-      <c r="D49" t="s">
-        <v>180</v>
-      </c>
       <c r="E49" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="P49" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C50" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="D50" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="E50" t="s">
-        <v>114</v>
-      </c>
-      <c r="F50">
+        <v>103</v>
+      </c>
+      <c r="R50" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" t="s">
+        <v>103</v>
+      </c>
+      <c r="R51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" t="s">
+        <v>141</v>
+      </c>
+      <c r="E52" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52">
         <v>0</v>
       </c>
-      <c r="L50" t="s">
-        <v>185</v>
-      </c>
-      <c r="P50" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" t="s">
-        <v>126</v>
-      </c>
-      <c r="C51" t="s">
-        <v>163</v>
-      </c>
-      <c r="D51" t="s">
-        <v>163</v>
-      </c>
-      <c r="E51" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" t="s">
-        <v>126</v>
-      </c>
-      <c r="C52" t="s">
-        <v>182</v>
-      </c>
-      <c r="D52" t="s">
-        <v>182</v>
-      </c>
-      <c r="E52" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C53" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E53" t="s">
-        <v>114</v>
-      </c>
-      <c r="F53">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" t="s">
+        <v>103</v>
+      </c>
+      <c r="P54" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" t="s">
+        <v>168</v>
+      </c>
+      <c r="D55" t="s">
+        <v>168</v>
+      </c>
+      <c r="E55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" t="s">
+        <v>169</v>
+      </c>
+      <c r="E56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" t="s">
+        <v>137</v>
+      </c>
+      <c r="D57" t="s">
+        <v>137</v>
+      </c>
+      <c r="E57" t="s">
+        <v>105</v>
+      </c>
+      <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>92</v>
-      </c>
-      <c r="B54" t="s">
-        <v>152</v>
-      </c>
-      <c r="C54" t="s">
-        <v>152</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="G57">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>92</v>
-      </c>
-      <c r="B55" t="s">
-        <v>154</v>
-      </c>
-      <c r="C55" t="s">
-        <v>117</v>
-      </c>
-      <c r="E55" t="s">
-        <v>112</v>
-      </c>
-      <c r="P55" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" t="s">
-        <v>146</v>
-      </c>
-      <c r="C56" t="s">
-        <v>183</v>
-      </c>
-      <c r="D56" t="s">
-        <v>183</v>
-      </c>
-      <c r="E56" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>92</v>
-      </c>
-      <c r="B57" t="s">
-        <v>146</v>
-      </c>
-      <c r="C57" t="s">
-        <v>184</v>
-      </c>
-      <c r="D57" t="s">
-        <v>184</v>
-      </c>
-      <c r="E57" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B58" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C58" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D58" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E58" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2519,21 +2674,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C59" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D59" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E59" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2542,21 +2697,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C60" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D60" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E60" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2565,473 +2720,483 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" t="s">
+        <v>154</v>
+      </c>
+      <c r="E62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" t="s">
+        <v>146</v>
+      </c>
+      <c r="D63" t="s">
+        <v>146</v>
+      </c>
+      <c r="E63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" t="s">
+        <v>147</v>
+      </c>
+      <c r="E64" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" t="s">
+        <v>148</v>
+      </c>
+      <c r="E65" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q65" s="1"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" t="s">
+        <v>149</v>
+      </c>
+      <c r="E66" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q66" s="1"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" t="s">
+        <v>150</v>
+      </c>
+      <c r="E67" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q67" s="1"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" t="s">
+        <v>151</v>
+      </c>
+      <c r="E68" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q68" s="1"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q69" s="1"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" t="s">
         <v>92</v>
       </c>
-      <c r="B61" t="s">
-        <v>146</v>
-      </c>
-      <c r="C61" t="s">
-        <v>150</v>
-      </c>
-      <c r="D61" t="s">
-        <v>150</v>
-      </c>
-      <c r="E61" t="s">
-        <v>112</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
+      <c r="C70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" t="s">
+        <v>103</v>
+      </c>
+      <c r="N70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" t="s">
+        <v>113</v>
+      </c>
+      <c r="D71" t="s">
+        <v>113</v>
+      </c>
+      <c r="E71" t="s">
+        <v>103</v>
+      </c>
+      <c r="L71" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72" t="s">
+        <v>157</v>
+      </c>
+      <c r="E72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" t="s">
+        <v>158</v>
+      </c>
+      <c r="E74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" t="s">
+        <v>159</v>
+      </c>
+      <c r="E75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" t="s">
+        <v>160</v>
+      </c>
+      <c r="E76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" t="s">
+        <v>161</v>
+      </c>
+      <c r="E77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78" t="s">
+        <v>96</v>
+      </c>
+      <c r="E78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" t="s">
+        <v>95</v>
+      </c>
+      <c r="C79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" t="s">
+        <v>98</v>
+      </c>
+      <c r="E80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" t="s">
+        <v>99</v>
+      </c>
+      <c r="E81" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>92</v>
-      </c>
-      <c r="B62" t="s">
-        <v>155</v>
-      </c>
-      <c r="C62" t="s">
-        <v>100</v>
-      </c>
-      <c r="D62" t="s">
-        <v>100</v>
-      </c>
-      <c r="E62" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>92</v>
-      </c>
-      <c r="B63" t="s">
-        <v>155</v>
-      </c>
-      <c r="C63" t="s">
-        <v>164</v>
-      </c>
-      <c r="D63" t="s">
-        <v>164</v>
-      </c>
-      <c r="E63" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>92</v>
-      </c>
-      <c r="B64" t="s">
-        <v>155</v>
-      </c>
-      <c r="C64" t="s">
-        <v>156</v>
-      </c>
-      <c r="D64" t="s">
-        <v>156</v>
-      </c>
-      <c r="E64" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>92</v>
-      </c>
-      <c r="B65" t="s">
-        <v>155</v>
-      </c>
-      <c r="C65" t="s">
-        <v>157</v>
-      </c>
-      <c r="E65" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>92</v>
-      </c>
-      <c r="B66" t="s">
-        <v>155</v>
-      </c>
-      <c r="C66" t="s">
-        <v>158</v>
-      </c>
-      <c r="E66" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q66" s="1"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>92</v>
-      </c>
-      <c r="B67" t="s">
-        <v>155</v>
-      </c>
-      <c r="C67" t="s">
-        <v>159</v>
-      </c>
-      <c r="E67" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q67" s="1"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>92</v>
-      </c>
-      <c r="B68" t="s">
-        <v>155</v>
-      </c>
-      <c r="C68" t="s">
-        <v>160</v>
-      </c>
-      <c r="E68" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q68" s="1"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>92</v>
-      </c>
-      <c r="B69" t="s">
-        <v>155</v>
-      </c>
-      <c r="C69" t="s">
-        <v>161</v>
-      </c>
-      <c r="E69" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q69" s="1"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>92</v>
-      </c>
-      <c r="B70" t="s">
-        <v>155</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="E82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" t="s">
+        <v>89</v>
+      </c>
+      <c r="E83" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" t="s">
+        <v>90</v>
+      </c>
+      <c r="E84" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" t="s">
+        <v>107</v>
+      </c>
+      <c r="E85" t="s">
+        <v>103</v>
+      </c>
+      <c r="L85" t="b">
+        <v>1</v>
+      </c>
+      <c r="N85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>102</v>
+      </c>
+      <c r="C87" t="s">
         <v>162</v>
       </c>
-      <c r="E70" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q70" s="1"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="D87" t="s">
+        <v>162</v>
+      </c>
+      <c r="E87" t="s">
+        <v>103</v>
+      </c>
+      <c r="L87" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88" t="s">
         <v>101</v>
       </c>
-      <c r="C71" t="s">
-        <v>99</v>
-      </c>
-      <c r="E71" t="s">
-        <v>112</v>
-      </c>
-      <c r="N71" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>92</v>
-      </c>
-      <c r="B72" t="s">
-        <v>104</v>
-      </c>
-      <c r="C72" t="s">
-        <v>122</v>
-      </c>
-      <c r="D72" t="s">
-        <v>122</v>
-      </c>
-      <c r="E72" t="s">
-        <v>112</v>
-      </c>
-      <c r="L72" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>92</v>
-      </c>
-      <c r="B73" t="s">
-        <v>104</v>
-      </c>
-      <c r="C73" t="s">
-        <v>167</v>
-      </c>
-      <c r="D73" t="s">
-        <v>167</v>
-      </c>
-      <c r="E73" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>92</v>
-      </c>
-      <c r="B74" t="s">
-        <v>104</v>
-      </c>
-      <c r="C74" t="s">
-        <v>100</v>
-      </c>
-      <c r="E74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>92</v>
-      </c>
-      <c r="B75" t="s">
-        <v>104</v>
-      </c>
-      <c r="C75" t="s">
-        <v>168</v>
-      </c>
-      <c r="E75" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>92</v>
-      </c>
-      <c r="B76" t="s">
-        <v>104</v>
-      </c>
-      <c r="C76" t="s">
-        <v>169</v>
-      </c>
-      <c r="E76" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>92</v>
-      </c>
-      <c r="B77" t="s">
-        <v>104</v>
-      </c>
-      <c r="C77" t="s">
-        <v>170</v>
-      </c>
-      <c r="E77" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>92</v>
-      </c>
-      <c r="B78" t="s">
-        <v>104</v>
-      </c>
-      <c r="C78" t="s">
-        <v>171</v>
-      </c>
-      <c r="E78" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>92</v>
-      </c>
-      <c r="B79" t="s">
-        <v>104</v>
-      </c>
-      <c r="C79" t="s">
-        <v>105</v>
-      </c>
-      <c r="E79" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>92</v>
-      </c>
-      <c r="B80" t="s">
-        <v>104</v>
-      </c>
-      <c r="C80" t="s">
-        <v>106</v>
-      </c>
-      <c r="E80" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>92</v>
-      </c>
-      <c r="B81" t="s">
-        <v>104</v>
-      </c>
-      <c r="C81" t="s">
-        <v>107</v>
-      </c>
-      <c r="E81" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>92</v>
-      </c>
-      <c r="B82" t="s">
-        <v>104</v>
-      </c>
-      <c r="C82" t="s">
-        <v>108</v>
-      </c>
-      <c r="E82" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>92</v>
-      </c>
-      <c r="B83" t="s">
-        <v>104</v>
-      </c>
-      <c r="C83" t="s">
-        <v>109</v>
-      </c>
-      <c r="E83" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>93</v>
-      </c>
-      <c r="B84" t="s">
-        <v>96</v>
-      </c>
-      <c r="C84" t="s">
-        <v>97</v>
-      </c>
-      <c r="E84" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>93</v>
-      </c>
-      <c r="B85" t="s">
-        <v>96</v>
-      </c>
-      <c r="C85" t="s">
-        <v>99</v>
-      </c>
-      <c r="E85" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>93</v>
-      </c>
-      <c r="B86" t="s">
-        <v>96</v>
-      </c>
-      <c r="C86" t="s">
-        <v>116</v>
-      </c>
-      <c r="E86" t="s">
-        <v>112</v>
-      </c>
-      <c r="L86" t="b">
-        <v>1</v>
-      </c>
-      <c r="N86" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>93</v>
-      </c>
-      <c r="B87" t="s">
-        <v>111</v>
-      </c>
-      <c r="C87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E87" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88" t="s">
-        <v>111</v>
-      </c>
-      <c r="C88" t="s">
-        <v>172</v>
-      </c>
       <c r="D88" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="E88" t="s">
-        <v>112</v>
-      </c>
-      <c r="L88" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B89" t="s">
-        <v>111</v>
-      </c>
-      <c r="C89" t="s">
-        <v>110</v>
-      </c>
-      <c r="D89" t="s">
-        <v>110</v>
+        <v>208</v>
       </c>
       <c r="E89" t="s">
-        <v>112</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>84</v>
+      </c>
+      <c r="B90" t="s">
+        <v>208</v>
+      </c>
+      <c r="E90" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>85</v>
+      </c>
+      <c r="B91" t="s">
+        <v>208</v>
+      </c>
+      <c r="E91" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R72">
-    <sortCondition ref="A2:A72"/>
-    <sortCondition ref="B2:B72"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R71">
+    <sortCondition ref="A2:A71"/>
+    <sortCondition ref="B2:B71"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="R6" r:id="rId1" xr:uid="{5CA59ECD-BDE4-4CE8-A26A-706FC7A72785}"/>
     <hyperlink ref="Q3" r:id="rId2" xr:uid="{4FF11960-BF62-4083-98E4-17942C08F2D4}"/>
     <hyperlink ref="Q21" r:id="rId3" xr:uid="{1DC5D7A4-630F-4963-B4A9-6A97BF7CC574}"/>
     <hyperlink ref="Q20" r:id="rId4" xr:uid="{519148F8-C5BF-4054-B814-800090ED5F55}"/>
-    <hyperlink ref="Q25" r:id="rId5" xr:uid="{3A95D549-3948-4598-80C7-81D9673EDE30}"/>
+    <hyperlink ref="Q24" r:id="rId5" xr:uid="{3A95D549-3948-4598-80C7-81D9673EDE30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId6"/>

--- a/templates/miaca/MIACA_template.xlsx
+++ b/templates/miaca/MIACA_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/naultran_msu_edu/Documents/Documents/Projects/FAIRTox/ToxRSCat/templates/miaca/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/ToxRSCat/templates/miaca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{A784B16D-5972-AA43-834C-20181E0E5210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACE835AA-4556-4CB7-A720-5F2FBB93C9F7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99377310-3036-5B43-A6FA-85AEE94D102A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkML_description" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="235">
   <si>
     <t>description</t>
   </si>
@@ -762,6 +762,15 @@
   </si>
   <si>
     <t>A1</t>
+  </si>
+  <si>
+    <t>investigation template version</t>
+  </si>
+  <si>
+    <t>study template version</t>
+  </si>
+  <si>
+    <t>sample template version</t>
   </si>
 </sst>
 </file>
@@ -814,11 +823,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1159,14 +1176,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" customWidth="1"/>
     <col min="3" max="4" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1183,7 +1200,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1210,1979 +1227,1991 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25A47E7-C24D-194E-BA2A-C4B34C2EC6AD}">
-  <dimension ref="A1:R91"/>
+  <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="114" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="21" customWidth="1"/>
-    <col min="3" max="4" width="37.125" customWidth="1"/>
-    <col min="5" max="8" width="10.125" customWidth="1"/>
-    <col min="9" max="10" width="15.875" customWidth="1"/>
-    <col min="11" max="12" width="21" customWidth="1"/>
-    <col min="13" max="13" width="21" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="14.125" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="21" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="21" customWidth="1"/>
+    <col min="1" max="2" width="21" style="4" customWidth="1"/>
+    <col min="3" max="4" width="37.1640625" style="4" customWidth="1"/>
+    <col min="5" max="8" width="10.1640625" style="4" customWidth="1"/>
+    <col min="9" max="10" width="15.83203125" style="4" customWidth="1"/>
+    <col min="11" max="12" width="21" style="4" customWidth="1"/>
+    <col min="13" max="13" width="19.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21" style="4" customWidth="1"/>
+    <col min="19" max="20" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E2" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E3" t="s">
-        <v>103</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="E3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="E4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="N4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="N4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O5" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="I5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="E6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="I6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R6" s="2" t="s">
+      <c r="N6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="E7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="I7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="I8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="I9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="E10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="I10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="4">
         <v>48824</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="E11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:18" ht="153" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="E12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="I13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="N13" t="b">
-        <v>1</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="N13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R13" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
-      <c r="N14" t="b">
-        <v>1</v>
-      </c>
-      <c r="R14" t="s">
+      <c r="E14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E15" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="E15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="I15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E16" t="s">
-        <v>103</v>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="E16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="E17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="I17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E18" t="s">
-        <v>103</v>
-      </c>
-      <c r="O18" t="b">
-        <v>1</v>
-      </c>
-      <c r="R18" t="s">
+      <c r="E18" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R18" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="19" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E19" t="s">
-        <v>103</v>
-      </c>
-      <c r="O19" t="b">
-        <v>1</v>
-      </c>
-      <c r="R19" t="s">
+      <c r="E19" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R19" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="20" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E20" t="s">
-        <v>103</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="E20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="M20" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="Q20" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="21" spans="1:18" ht="153" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="Q21" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R21" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="22" spans="1:18" ht="323" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R22" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="23" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="R23" t="s">
+      <c r="R23" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="24" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="Q24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="R24" t="s">
+      <c r="R24" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="25" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E25" t="s">
-        <v>103</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="E25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="Q25" s="1"/>
-      <c r="R25" t="s">
+      <c r="Q25" s="3"/>
+      <c r="R25" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="26" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E26" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="E26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="Q27" s="1"/>
-      <c r="R27" t="s">
+      <c r="Q27" s="3"/>
+      <c r="R27" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="28" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="Q28" s="1"/>
-      <c r="R28" t="s">
+      <c r="Q28" s="3"/>
+      <c r="R28" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="29" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="4">
         <v>0</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="4">
         <v>150</v>
       </c>
-      <c r="Q29" s="1"/>
-      <c r="R29">
+      <c r="Q29" s="3"/>
+      <c r="R29" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="30" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="4">
         <v>0</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="4">
         <v>100</v>
       </c>
-      <c r="Q30" s="1"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E31" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q31" s="1"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="E31" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="1:18" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="Q32" s="1"/>
-      <c r="R32" t="s">
+      <c r="Q32" s="3"/>
+      <c r="R32" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="33" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E33" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="E33" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E34" t="s">
-        <v>103</v>
-      </c>
-      <c r="K34" t="s">
+      <c r="E34" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="Q34" s="1"/>
-      <c r="R34" t="s">
+      <c r="Q34" s="3"/>
+      <c r="R34" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="35" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E35" t="s">
-        <v>103</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="E35" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="Q35" s="1"/>
-      <c r="R35" t="s">
+      <c r="Q35" s="3"/>
+      <c r="R35" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="36" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E36" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q36" s="1"/>
-      <c r="R36" t="s">
+      <c r="E36" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="37" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E37" t="s">
-        <v>103</v>
-      </c>
-      <c r="L37" t="s">
+      <c r="E37" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L37" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="38" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" t="b">
-        <v>1</v>
-      </c>
-      <c r="K38" t="s">
+      <c r="I38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="P38" t="s">
+      <c r="P38" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="39" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="b">
-        <v>1</v>
-      </c>
-      <c r="K39" t="s">
+      <c r="I39" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P39" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="Q39" s="2"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="Q39" s="5"/>
+    </row>
+    <row r="40" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E40" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q40" s="1"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="E40" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E41" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q41" s="1"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="E41" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E42" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q42" s="1"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="E42" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E43" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q43" s="1"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="E43" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="Q44" s="1"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P45" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="46" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E46" t="s">
-        <v>103</v>
-      </c>
-      <c r="P46" t="s">
+      <c r="E46" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="P46" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="47" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4">
         <v>384</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="P47" t="s">
+      <c r="P47" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="48" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="4">
         <v>0</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L48" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="P48" t="s">
+      <c r="P48" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>84</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="4">
         <v>0</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L49" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P49" t="s">
+      <c r="P49" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>84</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="50" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E50" t="s">
-        <v>103</v>
-      </c>
-      <c r="R50" t="s">
+      <c r="E50" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="R50" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="51" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E51" t="s">
-        <v>103</v>
-      </c>
-      <c r="R51" t="s">
+      <c r="E51" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="R51" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="52" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="53" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>84</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="54" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E54" t="s">
-        <v>103</v>
-      </c>
-      <c r="P54" t="s">
+      <c r="E54" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="P54" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>84</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="55" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E55" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>84</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="E55" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>84</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="E56" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="4">
         <v>0</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="4">
         <v>100</v>
       </c>
-      <c r="R57">
+      <c r="R57" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>84</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="58" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="4">
         <v>0</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>84</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="59" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E59" t="s">
-        <v>103</v>
-      </c>
-      <c r="F59">
+      <c r="E59" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F59" s="4">
         <v>0</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>84</v>
-      </c>
-      <c r="B60" t="s">
+    <row r="60" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E60" t="s">
-        <v>103</v>
-      </c>
-      <c r="F60">
+      <c r="E60" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F60" s="4">
         <v>0</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>84</v>
-      </c>
-      <c r="B61" t="s">
+    <row r="61" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E61" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>84</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="E61" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>84</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="E62" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E63" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>84</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="E63" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E64" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>84</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="E64" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E65" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q65" s="1"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>84</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="E65" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q65" s="3"/>
+    </row>
+    <row r="66" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E66" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q66" s="1"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>84</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="E66" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E67" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q67" s="1"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>84</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="E67" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E68" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q68" s="1"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>84</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="E68" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E69" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q69" s="1"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>84</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="E69" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q69" s="3"/>
+    </row>
+    <row r="70" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E70" t="s">
-        <v>103</v>
-      </c>
-      <c r="N70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>84</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="E70" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="N70" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E71" t="s">
-        <v>103</v>
-      </c>
-      <c r="L71" t="s">
+      <c r="E71" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L71" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>84</v>
-      </c>
-      <c r="B72" t="s">
+    <row r="72" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E72" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>84</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="E72" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E73" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>84</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="E73" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E74" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>84</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="E74" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E75" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>84</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="E75" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>84</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="E76" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E77" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>84</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="E77" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E78" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="E78" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E79" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>84</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="E79" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E80" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="E80" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E81" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="E81" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E82" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="E82" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E83" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="E83" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E84" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="E84" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E85" t="s">
-        <v>103</v>
-      </c>
-      <c r="L85" t="b">
-        <v>1</v>
-      </c>
-      <c r="N85" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="E85" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L85" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N85" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E86" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="E86" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E87" t="s">
-        <v>103</v>
-      </c>
-      <c r="L87" t="s">
+      <c r="E87" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L87" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="E88" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E89" t="s">
+      <c r="C89" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E89" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>84</v>
-      </c>
-      <c r="B90" t="s">
+    <row r="90" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E90" t="s">
+      <c r="C90" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="91" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E91" t="s">
+      <c r="C91" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E91" s="4" t="s">
         <v>208</v>
       </c>
     </row>

--- a/templates/miaca/MIACA_template.xlsx
+++ b/templates/miaca/MIACA_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/ToxRSCat/templates/miaca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99377310-3036-5B43-A6FA-85AEE94D102A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6755BB45-326B-EB4B-98CF-8D912C2ADB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="236">
   <si>
     <t>description</t>
   </si>
@@ -771,6 +771,9 @@
   </si>
   <si>
     <t>sample template version</t>
+  </si>
+  <si>
+    <t>Provenance</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1233,7 @@
   <dimension ref="A1:T91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" zoomScale="114" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2110,7 +2113,7 @@
       </c>
       <c r="Q31" s="3"/>
     </row>
-    <row r="32" spans="1:18" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>84</v>
       </c>
@@ -3198,7 +3201,7 @@
         <v>233</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -3212,7 +3215,7 @@
         <v>234</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/templates/miaca/MIACA_template.xlsx
+++ b/templates/miaca/MIACA_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/ToxRSCat/templates/miaca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6755BB45-326B-EB4B-98CF-8D912C2ADB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752852F7-E18E-1946-A4A0-6733F99825C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
   </bookViews>
@@ -1232,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25A47E7-C24D-194E-BA2A-C4B34C2EC6AD}">
   <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="114" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1814,6 +1814,9 @@
       <c r="E19" s="4" t="s">
         <v>103</v>
       </c>
+      <c r="M19" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="O19" s="4" t="b">
         <v>1</v>
       </c>
@@ -1834,7 +1837,7 @@
       <c r="E20" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="L20" s="4" t="s">
         <v>119</v>
       </c>
       <c r="P20" s="4" t="s">
@@ -3118,7 +3121,7 @@
       <c r="E85" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="L85" s="4" t="b">
+      <c r="M85" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N85" s="4" t="b">

--- a/templates/miaca/MIACA_template.xlsx
+++ b/templates/miaca/MIACA_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/ToxRSCat/templates/miaca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752852F7-E18E-1946-A4A0-6733F99825C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8117574B-9620-DA4F-9313-6EFC8DFC721B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
   </bookViews>
@@ -1232,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25A47E7-C24D-194E-BA2A-C4B34C2EC6AD}">
   <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1814,9 +1814,6 @@
       <c r="E19" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M19" s="4" t="b">
-        <v>1</v>
-      </c>
       <c r="O19" s="4" t="b">
         <v>1</v>
       </c>
@@ -2116,7 +2113,7 @@
       </c>
       <c r="Q31" s="3"/>
     </row>
-    <row r="32" spans="1:18" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>84</v>
       </c>

--- a/templates/miaca/MIACA_template.xlsx
+++ b/templates/miaca/MIACA_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/ToxRSCat/templates/miaca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8117574B-9620-DA4F-9313-6EFC8DFC721B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB87343-B4E6-C14E-90BA-2F344727BAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="243">
   <si>
     <t>description</t>
   </si>
@@ -774,6 +774,27 @@
   </si>
   <si>
     <t>Provenance</t>
+  </si>
+  <si>
+    <t>Study.study_identifier</t>
+  </si>
+  <si>
+    <t>Study.subject_identifier</t>
+  </si>
+  <si>
+    <t>Study.investigation_identifier</t>
+  </si>
+  <si>
+    <t>Investigation.investigation_identifier</t>
+  </si>
+  <si>
+    <t>Sample.sample_identifier</t>
+  </si>
+  <si>
+    <t>Sample.study_identifier</t>
+  </si>
+  <si>
+    <t>Sample.subject_identifier</t>
   </si>
 </sst>
 </file>
@@ -805,15 +826,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -821,12 +848,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -839,6 +895,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1230,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25A47E7-C24D-194E-BA2A-C4B34C2EC6AD}">
-  <dimension ref="A1:T91"/>
+  <dimension ref="A1:T92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="D58" zoomScale="112" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1252,86 +1327,103 @@
     <col min="19" max="20" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:20" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="N1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+    </row>
+    <row r="2" spans="1:20" s="12" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="4" t="s">
+      <c r="B2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+    </row>
+    <row r="3" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
@@ -1339,25 +1431,22 @@
         <v>62</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>103</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -1365,31 +1454,25 @@
         <v>62</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4" t="b">
-        <v>1</v>
-      </c>
       <c r="L4" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="N4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -1397,31 +1480,31 @@
         <v>62</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="I5" s="4" t="b">
         <v>1</v>
       </c>
       <c r="J5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="O5" s="4" t="b">
+      <c r="L5" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="N5" s="4" t="b">
         <v>1</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
@@ -1429,16 +1512,16 @@
         <v>62</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>103</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I6" s="4" t="b">
         <v>1</v>
@@ -1446,17 +1529,14 @@
       <c r="J6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="O6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -1464,16 +1544,16 @@
         <v>62</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>103</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I7" s="4" t="b">
         <v>1</v>
@@ -1482,13 +1562,16 @@
         <v>1</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="N7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
@@ -1496,13 +1579,16 @@
         <v>62</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="I8" s="4" t="b">
         <v>1</v>
@@ -1510,17 +1596,14 @@
       <c r="J8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>192</v>
-      </c>
       <c r="L8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
@@ -1528,10 +1611,10 @@
         <v>62</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>106</v>
@@ -1543,16 +1626,16 @@
         <v>1</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
@@ -1560,16 +1643,13 @@
         <v>62</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="I10" s="4" t="b">
         <v>1</v>
@@ -1577,14 +1657,17 @@
       <c r="J10" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="K10" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="L10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R10" s="4">
-        <v>48824</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1592,14 +1675,17 @@
         <v>62</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>103</v>
       </c>
+      <c r="H11" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="I11" s="4" t="b">
         <v>1</v>
       </c>
@@ -1607,13 +1693,13 @@
         <v>1</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="153" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="R11" s="4">
+        <v>48824</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
@@ -1621,10 +1707,10 @@
         <v>62</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>103</v>
@@ -1635,31 +1721,28 @@
       <c r="J12" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>193</v>
-      </c>
       <c r="L12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="153" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>180</v>
+        <v>54</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I13" s="4" t="b">
         <v>1</v>
@@ -1668,16 +1751,16 @@
         <v>1</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="N13" s="4" t="b">
-        <v>1</v>
+        <v>193</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
@@ -1685,13 +1768,13 @@
         <v>61</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I14" s="4" t="b">
         <v>1</v>
@@ -1699,40 +1782,46 @@
       <c r="J14" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="K14" s="4" t="s">
+        <v>213</v>
+      </c>
       <c r="N14" s="4" t="b">
         <v>1</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>215</v>
-      </c>
       <c r="I15" s="4" t="b">
         <v>1</v>
       </c>
       <c r="J15" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="N15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -1740,14 +1829,17 @@
         <v>79</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>103</v>
       </c>
+      <c r="H16" s="4" t="s">
+        <v>215</v>
+      </c>
       <c r="I16" s="4" t="b">
         <v>1</v>
       </c>
@@ -1755,7 +1847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
@@ -1763,88 +1855,121 @@
         <v>79</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D18" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="4" t="s">
+      <c r="E18" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="I17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="I18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+    </row>
+    <row r="19" spans="1:20" s="12" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+    </row>
+    <row r="20" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="O18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R18" s="4" t="s">
+      <c r="E20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R20" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="O19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="68" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="153" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>84</v>
       </c>
@@ -1852,31 +1977,22 @@
         <v>86</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="Q21" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="R21" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="323" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:20" ht="153" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>84</v>
       </c>
@@ -1884,25 +2000,31 @@
         <v>86</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>106</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="323" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>84</v>
       </c>
@@ -1910,51 +2032,48 @@
         <v>86</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>106</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>194</v>
+        <v>201</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>106</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q24" s="5" t="s">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>84</v>
       </c>
@@ -1962,23 +2081,28 @@
         <v>121</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q25" s="3"/>
+        <v>196</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="R25" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>84</v>
       </c>
@@ -1986,17 +2110,23 @@
         <v>121</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>103</v>
       </c>
+      <c r="K26" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="R26" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>84</v>
       </c>
@@ -2004,23 +2134,17 @@
         <v>121</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>223</v>
+        <v>103</v>
       </c>
       <c r="Q27" s="3"/>
-      <c r="R27" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>84</v>
       </c>
@@ -2028,23 +2152,23 @@
         <v>121</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>106</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="Q28" s="3"/>
       <c r="R28" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>84</v>
       </c>
@@ -2052,26 +2176,23 @@
         <v>121</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4">
-        <v>150</v>
+        <v>106</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="Q29" s="3"/>
-      <c r="R29" s="4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="R29" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>84</v>
       </c>
@@ -2079,10 +2200,10 @@
         <v>121</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>104</v>
@@ -2091,11 +2212,14 @@
         <v>0</v>
       </c>
       <c r="G30" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="Q30" s="3"/>
-    </row>
-    <row r="31" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="R30" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>84</v>
       </c>
@@ -2103,17 +2227,23 @@
         <v>121</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>100</v>
       </c>
       <c r="Q31" s="3"/>
     </row>
-    <row r="32" spans="1:18" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>84</v>
       </c>
@@ -2121,23 +2251,17 @@
         <v>121</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>204</v>
+        <v>103</v>
       </c>
       <c r="Q32" s="3"/>
-      <c r="R32" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:18" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>84</v>
       </c>
@@ -2145,17 +2269,23 @@
         <v>121</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="Q33" s="3"/>
-    </row>
-    <row r="34" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="R33" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>84</v>
       </c>
@@ -2163,26 +2293,17 @@
         <v>121</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="K34" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="Q34" s="3"/>
-      <c r="R34" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>84</v>
       </c>
@@ -2190,20 +2311,23 @@
         <v>121</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>103</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="Q35" s="3"/>
       <c r="R35" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2214,20 +2338,23 @@
         <v>121</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>103</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="Q36" s="3"/>
       <c r="R36" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>84</v>
       </c>
@@ -2235,51 +2362,40 @@
         <v>121</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="L37" s="4" t="s">
+      <c r="E38" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L38" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P37" s="4" t="s">
+      <c r="P38" s="4" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="51" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I38" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="P38" s="4" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -2290,10 +2406,10 @@
         <v>118</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>106</v>
@@ -2305,33 +2421,47 @@
         <v>1</v>
       </c>
       <c r="K39" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I40" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L40" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="P39" s="4" t="s">
+      <c r="P40" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="Q39" s="5"/>
-    </row>
-    <row r="40" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q40" s="3"/>
+      <c r="Q40" s="5"/>
     </row>
     <row r="41" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
@@ -2341,10 +2471,10 @@
         <v>134</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>103</v>
@@ -2356,10 +2486,13 @@
         <v>84</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>156</v>
+        <v>132</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>103</v>
@@ -2371,7 +2504,7 @@
         <v>84</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>156</v>
@@ -2386,16 +2519,13 @@
         <v>84</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="Q44" s="3"/>
     </row>
@@ -2407,23 +2537,15 @@
         <v>117</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="P45" s="4" t="s">
-        <v>186</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="Q45" s="3"/>
     </row>
     <row r="46" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
@@ -2433,19 +2555,25 @@
         <v>117</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>84</v>
       </c>
@@ -2453,25 +2581,16 @@
         <v>117</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F47" s="4">
-        <v>1</v>
-      </c>
-      <c r="G47" s="4">
-        <v>384</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -2482,25 +2601,28 @@
         <v>117</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F48" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G48" s="4">
+        <v>384</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>84</v>
       </c>
@@ -2508,10 +2630,10 @@
         <v>117</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>105</v>
@@ -2520,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2534,16 +2656,22 @@
         <v>117</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="R50" s="4" t="s">
-        <v>230</v>
+        <v>105</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2554,16 +2682,16 @@
         <v>117</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>103</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2571,16 +2699,19 @@
         <v>84</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>141</v>
+        <v>167</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F52" s="4">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2588,13 +2719,16 @@
         <v>84</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>91</v>
+        <v>105</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2602,16 +2736,13 @@
         <v>84</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="P54" s="4" t="s">
-        <v>191</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2619,16 +2750,16 @@
         <v>84</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>103</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2639,10 +2770,10 @@
         <v>136</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>103</v>
@@ -2656,22 +2787,13 @@
         <v>136</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F57" s="4">
-        <v>0</v>
-      </c>
-      <c r="G57" s="4">
-        <v>100</v>
-      </c>
-      <c r="R57" s="4">
-        <v>5</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2682,10 +2804,10 @@
         <v>136</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>105</v>
@@ -2696,6 +2818,9 @@
       <c r="G58" s="4">
         <v>100</v>
       </c>
+      <c r="R58" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="59" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
@@ -2705,13 +2830,13 @@
         <v>136</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F59" s="4">
         <v>0</v>
@@ -2728,10 +2853,10 @@
         <v>136</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>103</v>
@@ -2748,16 +2873,22 @@
         <v>84</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>103</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0</v>
+      </c>
+      <c r="G61" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2768,10 +2899,10 @@
         <v>145</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>103</v>
@@ -2785,10 +2916,10 @@
         <v>145</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>103</v>
@@ -2802,7 +2933,10 @@
         <v>145</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>103</v>
@@ -2816,12 +2950,11 @@
         <v>145</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="Q65" s="3"/>
     </row>
     <row r="66" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
@@ -2831,7 +2964,7 @@
         <v>145</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>103</v>
@@ -2846,7 +2979,7 @@
         <v>145</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>103</v>
@@ -2861,7 +2994,7 @@
         <v>145</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>103</v>
@@ -2876,7 +3009,7 @@
         <v>145</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>103</v>
@@ -2888,39 +3021,37 @@
         <v>84</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q70" s="3"/>
+    </row>
+    <row r="71" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C71" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="N70" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" ht="68" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="E71" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="L71" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="N71" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="68" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>84</v>
       </c>
@@ -2928,13 +3059,16 @@
         <v>95</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>103</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -2945,7 +3079,10 @@
         <v>95</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>91</v>
+        <v>157</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>103</v>
@@ -2959,7 +3096,7 @@
         <v>95</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>103</v>
@@ -2973,7 +3110,7 @@
         <v>95</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>103</v>
@@ -2987,7 +3124,7 @@
         <v>95</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>103</v>
@@ -3001,7 +3138,7 @@
         <v>95</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>103</v>
@@ -3015,7 +3152,7 @@
         <v>95</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>103</v>
@@ -3029,7 +3166,7 @@
         <v>95</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>103</v>
@@ -3043,13 +3180,13 @@
         <v>95</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>84</v>
       </c>
@@ -3057,13 +3194,13 @@
         <v>95</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>84</v>
       </c>
@@ -3071,41 +3208,63 @@
         <v>95</v>
       </c>
       <c r="C82" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E82" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
+      <c r="E83" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B84" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="C84" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N84" s="13"/>
+      <c r="O84" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13"/>
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
+      <c r="T84" s="13"/>
+    </row>
+    <row r="85" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>85</v>
       </c>
@@ -3113,33 +3272,39 @@
         <v>88</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>107</v>
+        <v>241</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M85" s="4" t="b">
-        <v>1</v>
-      </c>
       <c r="N85" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>91</v>
+        <v>242</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="O86" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>85</v>
       </c>
@@ -3147,19 +3312,13 @@
         <v>102</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="L87" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>85</v>
       </c>
@@ -3167,68 +3326,88 @@
         <v>102</v>
       </c>
       <c r="C88" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D89" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E88" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
+      <c r="E89" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>208</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>208</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>235</v>
       </c>
     </row>
+    <row r="92" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R71">
-    <sortCondition ref="A2:A71"/>
-    <sortCondition ref="B2:B71"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:R72">
+    <sortCondition ref="A3:A72"/>
+    <sortCondition ref="B3:B72"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="R6" r:id="rId1" xr:uid="{5CA59ECD-BDE4-4CE8-A26A-706FC7A72785}"/>
-    <hyperlink ref="Q3" r:id="rId2" xr:uid="{4FF11960-BF62-4083-98E4-17942C08F2D4}"/>
-    <hyperlink ref="Q21" r:id="rId3" xr:uid="{1DC5D7A4-630F-4963-B4A9-6A97BF7CC574}"/>
-    <hyperlink ref="Q20" r:id="rId4" xr:uid="{519148F8-C5BF-4054-B814-800090ED5F55}"/>
-    <hyperlink ref="Q24" r:id="rId5" xr:uid="{3A95D549-3948-4598-80C7-81D9673EDE30}"/>
+    <hyperlink ref="R7" r:id="rId1" xr:uid="{5CA59ECD-BDE4-4CE8-A26A-706FC7A72785}"/>
+    <hyperlink ref="Q4" r:id="rId2" xr:uid="{4FF11960-BF62-4083-98E4-17942C08F2D4}"/>
+    <hyperlink ref="Q22" r:id="rId3" xr:uid="{1DC5D7A4-630F-4963-B4A9-6A97BF7CC574}"/>
+    <hyperlink ref="Q21" r:id="rId4" xr:uid="{519148F8-C5BF-4054-B814-800090ED5F55}"/>
+    <hyperlink ref="Q25" r:id="rId5" xr:uid="{3A95D549-3948-4598-80C7-81D9673EDE30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId6"/>

--- a/templates/miaca/MIACA_template.xlsx
+++ b/templates/miaca/MIACA_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/ToxRSCat/templates/miaca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB87343-B4E6-C14E-90BA-2F344727BAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF3B41A-C021-5F4B-AA5B-6759A190475B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="248">
   <si>
     <t>description</t>
   </si>
@@ -392,9 +392,6 @@
     <t>sample_identifier</t>
   </si>
   <si>
-    <t xml:space="preserve"> cellDensity</t>
-  </si>
-  <si>
     <t xml:space="preserve"> transgene/genetic manipulations, e.g. stably transfected, induced</t>
   </si>
   <si>
@@ -795,6 +792,24 @@
   </si>
   <si>
     <t>Sample.subject_identifier</t>
+  </si>
+  <si>
+    <t>TBD.stem_cell</t>
+  </si>
+  <si>
+    <t>TBD.cell_line</t>
+  </si>
+  <si>
+    <t>date.culture_vessel</t>
+  </si>
+  <si>
+    <t>date.medium</t>
+  </si>
+  <si>
+    <t>date.treatment</t>
+  </si>
+  <si>
+    <t>date.sample_details</t>
   </si>
 </sst>
 </file>
@@ -826,7 +841,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -836,6 +851,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,7 +903,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -914,6 +935,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1307,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25A47E7-C24D-194E-BA2A-C4B34C2EC6AD}">
   <dimension ref="A1:T92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D58" zoomScale="112" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="93" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1393,7 +1418,7 @@
         <v>88</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>87</v>
@@ -1418,7 +1443,7 @@
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
@@ -1443,7 +1468,7 @@
         <v>39</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="51" x14ac:dyDescent="0.2">
@@ -1495,13 +1520,13 @@
         <v>1</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N5" s="4" t="b">
         <v>1</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -1521,7 +1546,7 @@
         <v>103</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I6" s="4" t="b">
         <v>1</v>
@@ -1553,7 +1578,7 @@
         <v>103</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I7" s="4" t="b">
         <v>1</v>
@@ -1588,7 +1613,7 @@
         <v>103</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I8" s="4" t="b">
         <v>1</v>
@@ -1600,7 +1625,7 @@
         <v>42</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="119" x14ac:dyDescent="0.2">
@@ -1626,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>43</v>
@@ -1658,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>44</v>
@@ -1684,7 +1709,7 @@
         <v>103</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I11" s="4" t="b">
         <v>1</v>
@@ -1751,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>47</v>
@@ -1771,7 +1796,7 @@
         <v>37</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>106</v>
@@ -1783,13 +1808,13 @@
         <v>1</v>
       </c>
       <c r="K14" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="N14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="N14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
@@ -1838,7 +1863,7 @@
         <v>103</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I16" s="4" t="b">
         <v>1</v>
@@ -1889,7 +1914,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I18" s="6" t="b">
         <v>1</v>
@@ -1916,7 +1941,7 @@
         <v>88</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>89</v>
@@ -1941,33 +1966,46 @@
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
     </row>
-    <row r="20" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:20" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="C20" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="O20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R20" s="4" t="s">
-        <v>210</v>
-      </c>
+      <c r="E20" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
     </row>
     <row r="21" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
@@ -1977,16 +2015,16 @@
         <v>86</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>103</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q21" s="5" t="s">
         <v>70</v>
@@ -2009,19 +2047,19 @@
         <v>106</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>73</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="5" t="s">
         <v>70</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="323" x14ac:dyDescent="0.2">
@@ -2041,13 +2079,13 @@
         <v>106</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>74</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="17" x14ac:dyDescent="0.2">
@@ -2067,10 +2105,10 @@
         <v>106</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="34" x14ac:dyDescent="0.2">
@@ -2078,28 +2116,28 @@
         <v>84</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>106</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="5" t="s">
         <v>70</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="85" x14ac:dyDescent="0.2">
@@ -2107,23 +2145,23 @@
         <v>84</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>103</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="3"/>
       <c r="R26" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="17" x14ac:dyDescent="0.2">
@@ -2131,13 +2169,13 @@
         <v>84</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>103</v>
@@ -2149,7 +2187,7 @@
         <v>84</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>94</v>
@@ -2161,11 +2199,11 @@
         <v>106</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q28" s="3"/>
       <c r="R28" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="17" x14ac:dyDescent="0.2">
@@ -2173,7 +2211,7 @@
         <v>84</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>93</v>
@@ -2185,11 +2223,11 @@
         <v>106</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q29" s="3"/>
       <c r="R29" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="17" x14ac:dyDescent="0.2">
@@ -2197,13 +2235,13 @@
         <v>84</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>104</v>
@@ -2224,13 +2262,13 @@
         <v>84</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>104</v>
@@ -2248,41 +2286,41 @@
         <v>84</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>103</v>
       </c>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:18" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>106</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q33" s="3"/>
       <c r="R33" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2290,13 +2328,13 @@
         <v>84</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>103</v>
@@ -2308,26 +2346,26 @@
         <v>84</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>103</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q35" s="3"/>
       <c r="R35" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2335,23 +2373,23 @@
         <v>84</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>103</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q36" s="3"/>
       <c r="R36" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2359,20 +2397,20 @@
         <v>84</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>103</v>
       </c>
       <c r="Q37" s="3"/>
       <c r="R37" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -2380,22 +2418,22 @@
         <v>84</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>103</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -2403,13 +2441,13 @@
         <v>84</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>106</v>
@@ -2421,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -2435,13 +2473,13 @@
         <v>84</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>106</v>
@@ -2453,13 +2491,13 @@
         <v>1</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q40" s="5"/>
     </row>
@@ -2468,13 +2506,13 @@
         <v>84</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>103</v>
@@ -2486,13 +2524,13 @@
         <v>84</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>103</v>
@@ -2504,10 +2542,13 @@
         <v>84</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>156</v>
+        <v>242</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>103</v>
@@ -2519,10 +2560,13 @@
         <v>84</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>103</v>
@@ -2534,10 +2578,10 @@
         <v>84</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>91</v>
+        <v>244</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>91</v>
@@ -2552,25 +2596,25 @@
         <v>84</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>106</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2578,19 +2622,19 @@
         <v>84</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>103</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -2598,13 +2642,13 @@
         <v>84</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>104</v>
@@ -2616,10 +2660,10 @@
         <v>384</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -2627,13 +2671,13 @@
         <v>84</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>105</v>
@@ -2642,10 +2686,10 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2653,13 +2697,13 @@
         <v>84</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>105</v>
@@ -2668,10 +2712,10 @@
         <v>0</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2679,19 +2723,19 @@
         <v>84</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>103</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2699,19 +2743,19 @@
         <v>84</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>103</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2719,10 +2763,10 @@
         <v>84</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>105</v>
@@ -2736,10 +2780,10 @@
         <v>84</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>91</v>
@@ -2750,16 +2794,16 @@
         <v>84</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>103</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2767,13 +2811,13 @@
         <v>84</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>103</v>
@@ -2784,13 +2828,13 @@
         <v>84</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>103</v>
@@ -2801,13 +2845,13 @@
         <v>84</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="D58" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>105</v>
@@ -2827,13 +2871,13 @@
         <v>84</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>105</v>
@@ -2850,13 +2894,13 @@
         <v>84</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>103</v>
@@ -2873,13 +2917,13 @@
         <v>84</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>103</v>
@@ -2896,10 +2940,10 @@
         <v>84</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>91</v>
+        <v>245</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>91</v>
@@ -2913,13 +2957,13 @@
         <v>84</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>103</v>
@@ -2930,128 +2974,142 @@
         <v>84</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="D64" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C65" s="4" t="s">
+      <c r="E65" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C66" s="4" t="s">
+      <c r="E66" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q66" s="3"/>
-    </row>
-    <row r="67" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C67" s="4" t="s">
+      <c r="E67" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C68" s="4" t="s">
+      <c r="E68" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q68" s="3"/>
-    </row>
-    <row r="69" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" s="4" t="s">
+      <c r="E69" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q69" s="3"/>
+    </row>
+    <row r="70" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q69" s="3"/>
-    </row>
-    <row r="70" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="E70" s="4" t="s">
         <v>103</v>
       </c>
       <c r="Q70" s="3"/>
     </row>
-    <row r="71" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B71" s="4" t="s">
+    <row r="71" spans="1:20" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D71" s="4" t="s">
+      <c r="C71" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="N71" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+      <c r="E71" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="15"/>
+      <c r="S71" s="15"/>
+      <c r="T71" s="15"/>
+    </row>
+    <row r="72" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>84</v>
       </c>
@@ -3059,19 +3117,19 @@
         <v>95</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>103</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>84</v>
       </c>
@@ -3079,16 +3137,16 @@
         <v>95</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>84</v>
       </c>
@@ -3096,13 +3154,16 @@
         <v>95</v>
       </c>
       <c r="C74" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>84</v>
       </c>
@@ -3110,13 +3171,13 @@
         <v>95</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>84</v>
       </c>
@@ -3124,13 +3185,13 @@
         <v>95</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>84</v>
       </c>
@@ -3138,13 +3199,13 @@
         <v>95</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>84</v>
       </c>
@@ -3152,13 +3213,13 @@
         <v>95</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>84</v>
       </c>
@@ -3172,7 +3233,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>84</v>
       </c>
@@ -3236,7 +3297,7 @@
         <v>88</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="13" t="s">
         <v>107</v>
@@ -3264,45 +3325,73 @@
       <c r="S84" s="13"/>
       <c r="T84" s="13"/>
     </row>
-    <row r="85" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
+    <row r="85" spans="1:20" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O85" s="15"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="15"/>
+      <c r="S85" s="15"/>
+      <c r="T85" s="15"/>
+    </row>
+    <row r="86" spans="1:20" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="N85" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E86" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="O86" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="E86" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="15"/>
+      <c r="S86" s="15"/>
+      <c r="T86" s="15"/>
     </row>
     <row r="87" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
@@ -3312,6 +3401,9 @@
         <v>102</v>
       </c>
       <c r="C87" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E87" s="4" t="s">
@@ -3326,16 +3418,16 @@
         <v>102</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>103</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:20" ht="17" x14ac:dyDescent="0.2">
@@ -3360,13 +3452,13 @@
         <v>30</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:20" ht="34" x14ac:dyDescent="0.2">
@@ -3374,13 +3466,13 @@
         <v>84</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="92" spans="1:20" ht="34" x14ac:dyDescent="0.2">
@@ -3388,13 +3480,13 @@
         <v>85</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C92" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E92" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/templates/miaca/MIACA_template.xlsx
+++ b/templates/miaca/MIACA_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/ToxRSCat/templates/miaca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF3B41A-C021-5F4B-AA5B-6759A190475B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BC803A-2FED-FC45-9131-E79D7D2527E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="246">
   <si>
     <t>description</t>
   </si>
@@ -146,9 +146,6 @@
     <t>CC0</t>
   </si>
   <si>
-    <t>investigation_description</t>
-  </si>
-  <si>
     <t>data_submission_contact_name</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>data_submission_contact_email</t>
   </si>
   <si>
-    <t>Investigation</t>
-  </si>
-  <si>
     <t>data_submission_contact_telephone</t>
   </si>
   <si>
@@ -329,15 +323,9 @@
     <t>experiment</t>
   </si>
   <si>
-    <t>investigation_identifier</t>
-  </si>
-  <si>
     <t>identifiers</t>
   </si>
   <si>
-    <t>study_identifier</t>
-  </si>
-  <si>
     <t>subject_identifier</t>
   </si>
   <si>
@@ -773,24 +761,12 @@
     <t>Provenance</t>
   </si>
   <si>
-    <t>Study.study_identifier</t>
-  </si>
-  <si>
     <t>Study.subject_identifier</t>
   </si>
   <si>
-    <t>Study.investigation_identifier</t>
-  </si>
-  <si>
-    <t>Investigation.investigation_identifier</t>
-  </si>
-  <si>
     <t>Sample.sample_identifier</t>
   </si>
   <si>
-    <t>Sample.study_identifier</t>
-  </si>
-  <si>
     <t>Sample.subject_identifier</t>
   </si>
   <si>
@@ -810,6 +786,24 @@
   </si>
   <si>
     <t>date.sample_details</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Project.project_identifier</t>
+  </si>
+  <si>
+    <t>Project_identifier</t>
+  </si>
+  <si>
+    <t>project_description</t>
+  </si>
+  <si>
+    <t>Study.project_identifier</t>
+  </si>
+  <si>
+    <t>project_identifier</t>
   </si>
 </sst>
 </file>
@@ -903,7 +897,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -939,6 +933,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1330,10 +1328,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25A47E7-C24D-194E-BA2A-C4B34C2EC6AD}">
-  <dimension ref="A1:T92"/>
+  <dimension ref="A1:T90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="93" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E84" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1412,19 +1413,19 @@
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -1443,75 +1444,75 @@
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
     <row r="3" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I5" s="4" t="b">
         <v>1</v>
@@ -1520,33 +1521,33 @@
         <v>1</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="N5" s="4" t="b">
         <v>1</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I6" s="4" t="b">
         <v>1</v>
@@ -1558,62 +1559,62 @@
         <v>1</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I8" s="4" t="b">
         <v>1</v>
@@ -1622,27 +1623,27 @@
         <v>1</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I9" s="4" t="b">
         <v>1</v>
@@ -1651,30 +1652,30 @@
         <v>1</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I10" s="4" t="b">
         <v>1</v>
@@ -1683,33 +1684,33 @@
         <v>1</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I11" s="4" t="b">
         <v>1</v>
@@ -1718,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R11" s="4">
         <v>48824</v>
@@ -1726,19 +1727,19 @@
     </row>
     <row r="12" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I12" s="4" t="b">
         <v>1</v>
@@ -1747,27 +1748,27 @@
         <v>1</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="153" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I13" s="4" t="b">
         <v>1</v>
@@ -1776,30 +1777,30 @@
         <v>1</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I14" s="4" t="b">
         <v>1</v>
@@ -1808,30 +1809,30 @@
         <v>1</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="N14" s="4" t="b">
         <v>1</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I15" s="4" t="b">
         <v>1</v>
@@ -1843,27 +1844,27 @@
         <v>1</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I16" s="4" t="b">
         <v>1</v>
@@ -1874,19 +1875,19 @@
     </row>
     <row r="17" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I17" s="4" t="b">
         <v>1</v>
@@ -1895,356 +1896,367 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6" t="s">
+    <row r="18" spans="1:20" s="18" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="I18" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+    </row>
+    <row r="19" spans="1:20" ht="68" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="153" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="323" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="R21" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="I18" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-    </row>
-    <row r="19" spans="1:20" s="12" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+    </row>
+    <row r="22" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="C22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+    </row>
+    <row r="23" spans="1:20" s="12" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+    </row>
+    <row r="24" spans="1:20" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-    </row>
-    <row r="20" spans="1:20" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-    </row>
-    <row r="21" spans="1:20" ht="68" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="C24" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="153" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="R22" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="323" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="R23" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="R24" s="4" t="s">
-        <v>219</v>
-      </c>
+      <c r="E24" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
     </row>
     <row r="25" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="3"/>
       <c r="R26" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q28" s="3"/>
       <c r="R28" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q29" s="3"/>
       <c r="R29" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
@@ -2259,19 +2271,19 @@
     </row>
     <row r="31" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -2283,206 +2295,206 @@
     </row>
     <row r="32" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:18" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q33" s="3"/>
       <c r="R33" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q35" s="3"/>
       <c r="R35" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q36" s="3"/>
       <c r="R36" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q37" s="3"/>
       <c r="R37" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E39" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I39" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="L39" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I39" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="P39" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I40" s="4" t="b">
         <v>1</v>
@@ -2491,167 +2503,167 @@
         <v>1</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q40" s="5"/>
     </row>
     <row r="41" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q41" s="3"/>
     </row>
     <row r="42" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q42" s="3"/>
     </row>
     <row r="43" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q43" s="3"/>
     </row>
     <row r="44" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q44" s="3"/>
     </row>
     <row r="45" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q45" s="3"/>
     </row>
     <row r="46" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F48" s="4">
         <v>1</v>
@@ -2660,116 +2672,116 @@
         <v>384</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F49" s="4">
         <v>0</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F50" s="4">
         <v>0</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F53" s="4">
         <v>0</v>
@@ -2777,84 +2789,84 @@
     </row>
     <row r="54" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F58" s="4">
         <v>0</v>
@@ -2868,19 +2880,19 @@
     </row>
     <row r="59" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F59" s="4">
         <v>0</v>
@@ -2891,19 +2903,19 @@
     </row>
     <row r="60" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F60" s="4">
         <v>0</v>
@@ -2914,19 +2926,19 @@
     </row>
     <row r="61" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="D61" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F61" s="4">
         <v>0</v>
@@ -2937,568 +2949,500 @@
     </row>
     <row r="62" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="E67" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C65" s="4" t="s">
+      <c r="E68" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" s="4" t="s">
+      <c r="E69" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q69" s="3"/>
+    </row>
+    <row r="70" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q66" s="3"/>
-    </row>
-    <row r="67" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q68" s="3"/>
-    </row>
-    <row r="69" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q69" s="3"/>
-    </row>
-    <row r="70" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="E70" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q70" s="3"/>
     </row>
-    <row r="71" spans="1:20" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B71" s="15" t="s">
+    <row r="71" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C71" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E71" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="O71" s="15"/>
-      <c r="P71" s="15"/>
-      <c r="Q71" s="15"/>
-      <c r="R71" s="15"/>
-      <c r="S71" s="15"/>
-      <c r="T71" s="15"/>
-    </row>
-    <row r="72" spans="1:20" ht="68" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="L72" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D74" s="4" t="s">
+      <c r="E78" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E74" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="C79" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="E81" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E82" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D83" s="13" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="E83" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N83" s="13"/>
+      <c r="O83" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P83" s="13"/>
+      <c r="Q83" s="13"/>
+      <c r="R83" s="13"/>
+      <c r="S83" s="13"/>
+      <c r="T83" s="13"/>
+    </row>
+    <row r="84" spans="1:20" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B84" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
+      <c r="S84" s="15"/>
+      <c r="T84" s="15"/>
+    </row>
+    <row r="85" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D84" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
-      <c r="K84" s="13"/>
-      <c r="L84" s="13"/>
-      <c r="M84" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="N84" s="13"/>
-      <c r="O84" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="P84" s="13"/>
-      <c r="Q84" s="13"/>
-      <c r="R84" s="13"/>
-      <c r="S84" s="13"/>
-      <c r="T84" s="13"/>
-    </row>
-    <row r="85" spans="1:20" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="O85" s="15"/>
-      <c r="P85" s="15"/>
-      <c r="Q85" s="15"/>
-      <c r="R85" s="15"/>
-      <c r="S85" s="15"/>
-      <c r="T85" s="15"/>
-    </row>
-    <row r="86" spans="1:20" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E86" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="P86" s="15"/>
-      <c r="Q86" s="15"/>
-      <c r="R86" s="15"/>
-      <c r="S86" s="15"/>
-      <c r="T86" s="15"/>
+      <c r="D85" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="68" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L86" s="4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="87" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>247</v>
+        <v>97</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" ht="68" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="L88" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>101</v>
+        <v>228</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>103</v>
+        <v>230</v>
       </c>
     </row>
     <row r="90" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" ht="34" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" ht="34" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:R72">
-    <sortCondition ref="A3:A72"/>
-    <sortCondition ref="B3:B72"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:R71">
+    <sortCondition ref="A3:A71"/>
+    <sortCondition ref="B3:B71"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1" xr:uid="{5CA59ECD-BDE4-4CE8-A26A-706FC7A72785}"/>
     <hyperlink ref="Q4" r:id="rId2" xr:uid="{4FF11960-BF62-4083-98E4-17942C08F2D4}"/>
-    <hyperlink ref="Q22" r:id="rId3" xr:uid="{1DC5D7A4-630F-4963-B4A9-6A97BF7CC574}"/>
-    <hyperlink ref="Q21" r:id="rId4" xr:uid="{519148F8-C5BF-4054-B814-800090ED5F55}"/>
+    <hyperlink ref="Q20" r:id="rId3" xr:uid="{1DC5D7A4-630F-4963-B4A9-6A97BF7CC574}"/>
+    <hyperlink ref="Q19" r:id="rId4" xr:uid="{519148F8-C5BF-4054-B814-800090ED5F55}"/>
     <hyperlink ref="Q25" r:id="rId5" xr:uid="{3A95D549-3948-4598-80C7-81D9673EDE30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/miaca/MIACA_template.xlsx
+++ b/templates/miaca/MIACA_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/ToxRSCat/templates/miaca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BC803A-2FED-FC45-9131-E79D7D2527E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0253FBB-6134-0B4B-BEB5-54D65481AAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="1" xr2:uid="{4C05F035-5B59-104F-A647-E8EAB47C9886}"/>
   </bookViews>
@@ -392,9 +392,6 @@
     <t>vendor</t>
   </si>
   <si>
-    <t xml:space="preserve"> treatment_protocol</t>
-  </si>
-  <si>
     <t>modifications</t>
   </si>
   <si>
@@ -524,9 +521,6 @@
     <t>TBD</t>
   </si>
   <si>
-    <t xml:space="preserve"> treatment_protocol_DOI</t>
-  </si>
-  <si>
     <t>addition_volume</t>
   </si>
   <si>
@@ -804,6 +798,12 @@
   </si>
   <si>
     <t>project_identifier</t>
+  </si>
+  <si>
+    <t>treatment_protocol</t>
+  </si>
+  <si>
+    <t>treatment_protocol_DOI</t>
   </si>
 </sst>
 </file>
@@ -897,7 +897,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -933,10 +933,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1331,10 +1327,10 @@
   <dimension ref="A1:T90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D92" sqref="D92"/>
+      <selection pane="bottomRight" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1413,16 +1409,16 @@
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>99</v>
@@ -1444,14 +1440,14 @@
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
     <row r="3" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>60</v>
@@ -1469,18 +1465,18 @@
         <v>37</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>47</v>
@@ -1500,7 +1496,7 @@
     </row>
     <row r="5" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>60</v>
@@ -1521,18 +1517,18 @@
         <v>1</v>
       </c>
       <c r="L5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="N5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="N5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>60</v>
@@ -1547,7 +1543,7 @@
         <v>99</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I6" s="4" t="b">
         <v>1</v>
@@ -1564,7 +1560,7 @@
     </row>
     <row r="7" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>60</v>
@@ -1579,7 +1575,7 @@
         <v>99</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I7" s="4" t="b">
         <v>1</v>
@@ -1599,7 +1595,7 @@
     </row>
     <row r="8" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>60</v>
@@ -1614,7 +1610,7 @@
         <v>99</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I8" s="4" t="b">
         <v>1</v>
@@ -1626,12 +1622,12 @@
         <v>40</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>60</v>
@@ -1652,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>41</v>
@@ -1663,7 +1659,7 @@
     </row>
     <row r="10" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>60</v>
@@ -1684,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>42</v>
@@ -1695,7 +1691,7 @@
     </row>
     <row r="11" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>60</v>
@@ -1710,7 +1706,7 @@
         <v>99</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I11" s="4" t="b">
         <v>1</v>
@@ -1727,7 +1723,7 @@
     </row>
     <row r="12" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>60</v>
@@ -1756,7 +1752,7 @@
     </row>
     <row r="13" spans="1:20" ht="153" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>60</v>
@@ -1777,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>45</v>
@@ -1788,7 +1784,7 @@
     </row>
     <row r="14" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>59</v>
@@ -1797,7 +1793,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>102</v>
@@ -1809,18 +1805,18 @@
         <v>1</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N14" s="4" t="b">
         <v>1</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>59</v>
@@ -1849,7 +1845,7 @@
     </row>
     <row r="16" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>77</v>
@@ -1864,7 +1860,7 @@
         <v>99</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I16" s="4" t="b">
         <v>1</v>
@@ -1875,7 +1871,7 @@
     </row>
     <row r="17" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>77</v>
@@ -1896,62 +1892,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="18" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="B18" s="17" t="s">
+    <row r="18" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="I18" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
+      <c r="E18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>99</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q19" s="5" t="s">
         <v>68</v>
@@ -1959,7 +1943,7 @@
     </row>
     <row r="20" spans="1:20" ht="153" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>84</v>
@@ -1974,24 +1958,24 @@
         <v>102</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>71</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>68</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="323" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>84</v>
@@ -2006,18 +1990,18 @@
         <v>102</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>72</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>84</v>
@@ -2037,7 +2021,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
@@ -2046,7 +2030,7 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
@@ -2059,10 +2043,10 @@
         <v>85</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>99</v>
@@ -2084,7 +2068,7 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
@@ -2097,7 +2081,7 @@
         <v>88</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>86</v>
@@ -2128,28 +2112,28 @@
         <v>82</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>102</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="5" t="s">
         <v>68</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="85" x14ac:dyDescent="0.2">
@@ -2157,23 +2141,23 @@
         <v>82</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>99</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="3"/>
       <c r="R26" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="17" x14ac:dyDescent="0.2">
@@ -2181,13 +2165,13 @@
         <v>82</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>99</v>
@@ -2199,7 +2183,7 @@
         <v>82</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>90</v>
@@ -2211,11 +2195,11 @@
         <v>102</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q28" s="3"/>
       <c r="R28" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="17" x14ac:dyDescent="0.2">
@@ -2223,7 +2207,7 @@
         <v>82</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>89</v>
@@ -2235,11 +2219,11 @@
         <v>102</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Q29" s="3"/>
       <c r="R29" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="17" x14ac:dyDescent="0.2">
@@ -2247,13 +2231,13 @@
         <v>82</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>100</v>
@@ -2274,13 +2258,13 @@
         <v>82</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>100</v>
@@ -2298,41 +2282,41 @@
         <v>82</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>99</v>
       </c>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:18" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>102</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q33" s="3"/>
       <c r="R33" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2340,13 +2324,13 @@
         <v>82</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>99</v>
@@ -2358,26 +2342,26 @@
         <v>82</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>99</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q35" s="3"/>
       <c r="R35" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2385,23 +2369,23 @@
         <v>82</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>99</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Q36" s="3"/>
       <c r="R36" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2409,20 +2393,20 @@
         <v>82</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>99</v>
       </c>
       <c r="Q37" s="3"/>
       <c r="R37" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -2430,13 +2414,13 @@
         <v>82</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>99</v>
@@ -2445,7 +2429,7 @@
         <v>104</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -2453,13 +2437,13 @@
         <v>82</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>102</v>
@@ -2471,13 +2455,13 @@
         <v>1</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>106</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -2485,13 +2469,13 @@
         <v>82</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>102</v>
@@ -2503,13 +2487,13 @@
         <v>1</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>105</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q40" s="5"/>
     </row>
@@ -2518,13 +2502,13 @@
         <v>82</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>99</v>
@@ -2536,13 +2520,13 @@
         <v>82</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>99</v>
@@ -2554,13 +2538,13 @@
         <v>82</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>99</v>
@@ -2572,13 +2556,13 @@
         <v>82</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>99</v>
@@ -2590,10 +2574,10 @@
         <v>82</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>87</v>
@@ -2608,25 +2592,25 @@
         <v>82</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>102</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2634,7 +2618,7 @@
         <v>82</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>107</v>
@@ -2646,7 +2630,7 @@
         <v>99</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -2654,13 +2638,13 @@
         <v>82</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>100</v>
@@ -2672,10 +2656,10 @@
         <v>384</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -2683,13 +2667,13 @@
         <v>82</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>101</v>
@@ -2698,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2709,13 +2693,13 @@
         <v>82</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>101</v>
@@ -2724,10 +2708,10 @@
         <v>0</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2735,19 +2719,19 @@
         <v>82</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>99</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2755,19 +2739,19 @@
         <v>82</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>99</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2775,10 +2759,10 @@
         <v>82</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>101</v>
@@ -2792,10 +2776,10 @@
         <v>82</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>87</v>
@@ -2806,16 +2790,16 @@
         <v>82</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>99</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2823,13 +2807,13 @@
         <v>82</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>99</v>
@@ -2840,13 +2824,13 @@
         <v>82</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>99</v>
@@ -2857,13 +2841,13 @@
         <v>82</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="D58" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>101</v>
@@ -2883,13 +2867,13 @@
         <v>82</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>101</v>
@@ -2906,13 +2890,13 @@
         <v>82</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>99</v>
@@ -2929,13 +2913,13 @@
         <v>82</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>99</v>
@@ -2952,16 +2936,16 @@
         <v>82</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -2969,13 +2953,13 @@
         <v>82</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>99</v>
@@ -2986,13 +2970,13 @@
         <v>82</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="D64" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>99</v>
@@ -3003,10 +2987,10 @@
         <v>82</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>99</v>
@@ -3017,10 +3001,10 @@
         <v>82</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>99</v>
@@ -3032,10 +3016,10 @@
         <v>82</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>99</v>
@@ -3047,10 +3031,10 @@
         <v>82</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>99</v>
@@ -3062,10 +3046,10 @@
         <v>82</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>99</v>
@@ -3077,10 +3061,10 @@
         <v>82</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>99</v>
@@ -3095,16 +3079,16 @@
         <v>91</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>108</v>
+        <v>244</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>108</v>
+        <v>244</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>99</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -3115,10 +3099,10 @@
         <v>91</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>99</v>
@@ -3132,13 +3116,13 @@
         <v>91</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -3149,7 +3133,7 @@
         <v>91</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>99</v>
@@ -3163,7 +3147,7 @@
         <v>91</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>99</v>
@@ -3177,7 +3161,7 @@
         <v>91</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>99</v>
@@ -3191,7 +3175,7 @@
         <v>91</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>99</v>
@@ -3275,7 +3259,7 @@
         <v>85</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D83" s="13" t="s">
         <v>103</v>
@@ -3311,7 +3295,7 @@
         <v>85</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>86</v>
@@ -3345,13 +3329,13 @@
         <v>98</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -3362,16 +3346,16 @@
         <v>98</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>99</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:20" ht="17" x14ac:dyDescent="0.2">
@@ -3393,16 +3377,16 @@
     </row>
     <row r="88" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:20" ht="34" x14ac:dyDescent="0.2">
@@ -3410,13 +3394,13 @@
         <v>82</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C89" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E89" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="90" spans="1:20" ht="34" x14ac:dyDescent="0.2">
@@ -3424,13 +3408,13 @@
         <v>83</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
